--- a/00_management/WBSガントチャート.xlsx
+++ b/00_management/WBSガントチャート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="418" documentId="11_06AD8BA54B8FBE2912825DFF753FE6726EDB0332" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7191292D-D108-41D8-8F48-4B27640F2285}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758879B3-D8EE-4E6E-B4AD-BE741B9CA3FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="8475" windowHeight="4710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18975" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復2" sheetId="2" r:id="rId1"/>
@@ -102,9 +102,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -166,14 +164,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -628,7 +626,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1620,79 +1618,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1713,18 +1684,6 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1734,31 +1693,70 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1785,6 +1783,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1794,13 +1798,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1809,26 +1825,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2891,13 +2889,13 @@
   <dimension ref="A1:X113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
@@ -2912,136 +2910,136 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="100" t="s">
+    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="84">
+      <c r="L1" s="75">
         <v>43990</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="84">
+      <c r="M1" s="76"/>
+      <c r="N1" s="75">
         <v>43991</v>
       </c>
-      <c r="O1" s="85"/>
-      <c r="P1" s="84">
+      <c r="O1" s="76"/>
+      <c r="P1" s="75">
         <v>43992</v>
       </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="84">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="75">
         <v>43993</v>
       </c>
-      <c r="S1" s="85"/>
-      <c r="T1" s="84">
+      <c r="S1" s="76"/>
+      <c r="T1" s="75">
         <v>43994</v>
       </c>
-      <c r="U1" s="85"/>
-    </row>
-    <row r="2" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="86" t="s">
+      <c r="U1" s="76"/>
+    </row>
+    <row r="2" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="89" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="86" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="86" t="s">
+      <c r="S2" s="78"/>
+      <c r="T2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="87"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="128"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="74"/>
       <c r="X2" s="39"/>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="92" t="s">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="90" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="93" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93" t="s">
+      <c r="S3" s="59"/>
+      <c r="T3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="93"/>
-    </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A4" s="105"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="96"/>
+      <c r="U3" s="59"/>
+    </row>
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="83"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3073,7 +3071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="5" spans="1:24" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="106" t="s">
         <v>20</v>
       </c>
@@ -3082,7 +3080,7 @@
       <c r="D5" s="108"/>
       <c r="E5" s="112"/>
       <c r="F5" s="112"/>
-      <c r="G5" s="124"/>
+      <c r="G5" s="114"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -3107,7 +3105,7 @@
         <v>13.75</v>
       </c>
       <c r="O5" s="27">
-        <f t="shared" ref="N5:Q5" si="0">SUM(O7,O23,O43,O59,O77,O85,O99)</f>
+        <f t="shared" ref="O5:P5" si="0">SUM(O7,O23,O43,O59,O77,O85,O99)</f>
         <v>16.75</v>
       </c>
       <c r="P5" s="27">
@@ -3132,14 +3130,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="11" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:24" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="109"/>
       <c r="B6" s="110"/>
       <c r="C6" s="110"/>
       <c r="D6" s="111"/>
       <c r="E6" s="113"/>
       <c r="F6" s="113"/>
-      <c r="G6" s="125"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -3147,15 +3145,15 @@
       <c r="J6" s="19"/>
       <c r="K6" s="47">
         <f>SUM(K8,K24,K44,K60,K78,K86)</f>
-        <v>5</v>
+        <v>20.75</v>
       </c>
       <c r="L6" s="47">
         <f>SUM(L8,L24,L44,L60,L78,L86)</f>
         <v>0</v>
       </c>
       <c r="M6" s="47">
-        <f t="shared" ref="M6:Q6" si="1">SUM(N8,N24,N44,N60,N78,N86)</f>
-        <v>0</v>
+        <f>SUM(M8,M24,M44,M60,M78,M86)</f>
+        <v>17</v>
       </c>
       <c r="N6" s="47">
         <f>SUM(N8,N24,N44,N60,N78,N86)</f>
@@ -3166,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M6:Q6" si="1">SUM(Q8,Q24,Q44,Q60,Q78,Q86)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="47">
@@ -3190,16 +3188,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="12" customHeight="1">
-      <c r="A7" s="114" t="s">
+    <row r="7" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="117"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -3252,14 +3250,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="12" customHeight="1">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="118"/>
+    <row r="8" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -3267,7 +3265,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>5</v>
+        <v>11.25</v>
       </c>
       <c r="L8" s="38" cm="1">
         <f t="array" ref="L8">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
@@ -3275,7 +3273,7 @@
       </c>
       <c r="M8" s="29">
         <f t="shared" ref="M8:S8" si="3">SUMPRODUCT((MOD(ROW(M$9:M$22),2)=0)*M$9:M$22)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="N8" s="29">
         <f t="shared" si="3"/>
@@ -3310,18 +3308,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="12" customHeight="1">
-      <c r="A9" s="73">
+    <row r="9" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="91">
         <v>1</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="59"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="104"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -3340,14 +3338,14 @@
       <c r="T9" s="54"/>
       <c r="U9" s="54"/>
     </row>
-    <row r="10" spans="1:24" ht="12" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="60"/>
+    <row r="10" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="92"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -3366,18 +3364,18 @@
       <c r="T10" s="55"/>
       <c r="U10" s="55"/>
     </row>
-    <row r="11" spans="1:24" ht="12" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="75" t="s">
+    <row r="11" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="91"/>
+      <c r="B11" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="63"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -3405,14 +3403,14 @@
       <c r="T11" s="54"/>
       <c r="U11" s="54"/>
     </row>
-    <row r="12" spans="1:24" ht="12" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="64"/>
+    <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="92"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="58" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
@@ -3427,7 +3425,9 @@
         <v>5</v>
       </c>
       <c r="L12" s="41"/>
-      <c r="M12" s="32"/>
+      <c r="M12" s="32">
+        <v>1.25</v>
+      </c>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
@@ -3437,18 +3437,18 @@
       <c r="T12" s="55"/>
       <c r="U12" s="55"/>
     </row>
-    <row r="13" spans="1:24" ht="12" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="75" t="s">
+    <row r="13" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="91"/>
+      <c r="B13" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="63"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -3476,14 +3476,14 @@
       <c r="T13" s="54"/>
       <c r="U13" s="54"/>
     </row>
-    <row r="14" spans="1:24" ht="12" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="64"/>
+    <row r="14" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="92"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="58" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
@@ -3494,10 +3494,12 @@
       <c r="J14" s="58"/>
       <c r="K14" s="10">
         <f>SUM(L14:S14)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L14" s="41"/>
-      <c r="M14" s="32"/>
+      <c r="M14" s="32">
+        <v>2.5</v>
+      </c>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
@@ -3507,18 +3509,18 @@
       <c r="T14" s="55"/>
       <c r="U14" s="55"/>
     </row>
-    <row r="15" spans="1:24" ht="12" customHeight="1">
-      <c r="A15" s="73">
+    <row r="15" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="91">
         <v>2</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="59"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="104"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3537,14 +3539,14 @@
       <c r="T15" s="54"/>
       <c r="U15" s="54"/>
     </row>
-    <row r="16" spans="1:24" ht="12" customHeight="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="60"/>
+    <row r="16" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="92"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="105"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3563,18 +3565,18 @@
       <c r="T16" s="55"/>
       <c r="U16" s="55"/>
     </row>
-    <row r="17" spans="1:21" ht="12" customHeight="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="75" t="s">
+    <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="91"/>
+      <c r="B17" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="63"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="89"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -3602,14 +3604,14 @@
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1">
-      <c r="A18" s="74"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="64"/>
+    <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="92"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="58" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
@@ -3618,10 +3620,12 @@
       <c r="J18" s="58"/>
       <c r="K18" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L18" s="41"/>
-      <c r="M18" s="32"/>
+      <c r="M18" s="32">
+        <v>1.25</v>
+      </c>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
@@ -3631,18 +3635,18 @@
       <c r="T18" s="55"/>
       <c r="U18" s="55"/>
     </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="75" t="s">
+    <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="91"/>
+      <c r="B19" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="63"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3670,14 +3674,14 @@
       <c r="T19" s="54"/>
       <c r="U19" s="54"/>
     </row>
-    <row r="20" spans="1:21" ht="12" customHeight="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="64"/>
+    <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="92"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="58" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
@@ -3686,10 +3690,12 @@
       <c r="J20" s="58"/>
       <c r="K20" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L20" s="41"/>
-      <c r="M20" s="32"/>
+      <c r="M20" s="32">
+        <v>1.25</v>
+      </c>
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
@@ -3699,18 +3705,18 @@
       <c r="T20" s="55"/>
       <c r="U20" s="55"/>
     </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="75" t="s">
+    <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="91"/>
+      <c r="B21" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="63"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3738,14 +3744,14 @@
       <c r="T21" s="54"/>
       <c r="U21" s="54"/>
     </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1">
-      <c r="A22" s="74"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
+    <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="92"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="58" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
@@ -3754,10 +3760,12 @@
       <c r="J22" s="58"/>
       <c r="K22" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L22" s="41"/>
-      <c r="M22" s="32"/>
+      <c r="M22" s="32">
+        <v>1.25</v>
+      </c>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
@@ -3767,16 +3775,16 @@
       <c r="T22" s="55"/>
       <c r="U22" s="55"/>
     </row>
-    <row r="23" spans="1:21" ht="12" customHeight="1">
-      <c r="A23" s="76" t="s">
+    <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="120"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="126"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3827,14 +3835,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="12" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="121"/>
+    <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="119"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="127"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3842,7 +3850,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="L24" s="42">
         <f t="shared" ref="L24:M24" si="6">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=0)*L$25:L$42)</f>
@@ -3850,7 +3858,7 @@
       </c>
       <c r="M24" s="36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="N24" s="36" cm="1">
         <f t="array" ref="N24">SUMPRODUCT((MOD(ROW(N$25:N$42),2)=0)*N$25:N$42)</f>
@@ -3885,18 +3893,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="12" customHeight="1">
-      <c r="A25" s="73">
+    <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="91">
         <v>1</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="59"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="104"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3915,14 +3923,14 @@
       <c r="T25" s="54"/>
       <c r="U25" s="54"/>
     </row>
-    <row r="26" spans="1:21" ht="12" customHeight="1">
-      <c r="A26" s="74"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="60"/>
+    <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="92"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3941,18 +3949,18 @@
       <c r="T26" s="55"/>
       <c r="U26" s="55"/>
     </row>
-    <row r="27" spans="1:21" ht="12" customHeight="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="75" t="s">
+    <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="91"/>
+      <c r="B27" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="63"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="89"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3980,14 +3988,14 @@
       <c r="T27" s="54"/>
       <c r="U27" s="54"/>
     </row>
-    <row r="28" spans="1:21" ht="12" customHeight="1">
-      <c r="A28" s="74"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="64"/>
+    <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="92"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="58" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
@@ -3996,10 +4004,12 @@
       <c r="J28" s="58"/>
       <c r="K28" s="10">
         <f t="shared" ref="K28:K34" si="8">SUM(L28:S28)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
+      <c r="M28" s="49">
+        <v>1.25</v>
+      </c>
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
@@ -4009,18 +4019,18 @@
       <c r="T28" s="55"/>
       <c r="U28" s="55"/>
     </row>
-    <row r="29" spans="1:21" ht="12" customHeight="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="75" t="s">
+    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="91"/>
+      <c r="B29" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="63"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -4048,14 +4058,14 @@
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
     </row>
-    <row r="30" spans="1:21" ht="12" customHeight="1">
-      <c r="A30" s="74"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="64"/>
+    <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="92"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="58" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
@@ -4064,10 +4074,12 @@
       <c r="J30" s="58"/>
       <c r="K30" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L30" s="48"/>
-      <c r="M30" s="49"/>
+      <c r="M30" s="49">
+        <v>1.25</v>
+      </c>
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
       <c r="P30" s="32"/>
@@ -4077,18 +4089,18 @@
       <c r="T30" s="55"/>
       <c r="U30" s="55"/>
     </row>
-    <row r="31" spans="1:21" ht="12" customHeight="1">
-      <c r="A31" s="73"/>
-      <c r="B31" s="75" t="s">
+    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="91"/>
+      <c r="B31" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="63"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -4116,14 +4128,14 @@
       <c r="T31" s="54"/>
       <c r="U31" s="54"/>
     </row>
-    <row r="32" spans="1:21" ht="12" customHeight="1">
-      <c r="A32" s="74"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="64"/>
+    <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="92"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="58" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
@@ -4132,10 +4144,12 @@
       <c r="J32" s="58"/>
       <c r="K32" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="48"/>
-      <c r="M32" s="49"/>
+      <c r="M32" s="49">
+        <v>1</v>
+      </c>
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
       <c r="P32" s="32"/>
@@ -4145,18 +4159,18 @@
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
     </row>
-    <row r="33" spans="1:21" ht="12" customHeight="1">
-      <c r="A33" s="73"/>
-      <c r="B33" s="75" t="s">
+    <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="91"/>
+      <c r="B33" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="63"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -4184,14 +4198,14 @@
       <c r="T33" s="54"/>
       <c r="U33" s="54"/>
     </row>
-    <row r="34" spans="1:21" ht="12" customHeight="1">
-      <c r="A34" s="74"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="64"/>
+    <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="92"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="58" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
@@ -4200,10 +4214,12 @@
       <c r="J34" s="58"/>
       <c r="K34" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="41"/>
-      <c r="M34" s="32"/>
+      <c r="M34" s="32">
+        <v>1</v>
+      </c>
       <c r="N34" s="32"/>
       <c r="O34" s="32"/>
       <c r="P34" s="32"/>
@@ -4213,18 +4229,18 @@
       <c r="T34" s="55"/>
       <c r="U34" s="55"/>
     </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1">
-      <c r="A35" s="73">
+    <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="91">
         <v>2</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="59"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="104"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -4243,14 +4259,14 @@
       <c r="T35" s="54"/>
       <c r="U35" s="54"/>
     </row>
-    <row r="36" spans="1:21" ht="12" customHeight="1">
-      <c r="A36" s="74"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="60"/>
+    <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="92"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="105"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -4269,18 +4285,18 @@
       <c r="T36" s="55"/>
       <c r="U36" s="55"/>
     </row>
-    <row r="37" spans="1:21" ht="12" customHeight="1">
-      <c r="A37" s="73"/>
-      <c r="B37" s="75" t="s">
+    <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="91"/>
+      <c r="B37" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="63"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="89"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -4308,14 +4324,14 @@
       <c r="T37" s="54"/>
       <c r="U37" s="54"/>
     </row>
-    <row r="38" spans="1:21" ht="12" customHeight="1">
-      <c r="A38" s="74"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="64"/>
+    <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="92"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="90"/>
       <c r="H38" s="58" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -4324,10 +4340,12 @@
       <c r="J38" s="58"/>
       <c r="K38" s="10">
         <f>SUM(L38:S38)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L38" s="41"/>
-      <c r="M38" s="51"/>
+      <c r="M38" s="51">
+        <v>1.25</v>
+      </c>
       <c r="N38" s="50"/>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
@@ -4337,18 +4355,18 @@
       <c r="T38" s="55"/>
       <c r="U38" s="55"/>
     </row>
-    <row r="39" spans="1:21" ht="12" customHeight="1">
-      <c r="A39" s="73"/>
-      <c r="B39" s="75" t="s">
+    <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="91"/>
+      <c r="B39" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="63"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="89"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -4376,14 +4394,14 @@
       <c r="T39" s="54"/>
       <c r="U39" s="54"/>
     </row>
-    <row r="40" spans="1:21" ht="12" customHeight="1">
-      <c r="A40" s="74"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="64"/>
+    <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="92"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="58" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
@@ -4392,10 +4410,12 @@
       <c r="J40" s="58"/>
       <c r="K40" s="10">
         <f>SUM(L40:M40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="48"/>
-      <c r="M40" s="50"/>
+      <c r="M40" s="50">
+        <v>1</v>
+      </c>
       <c r="N40" s="32"/>
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
@@ -4405,18 +4425,18 @@
       <c r="T40" s="55"/>
       <c r="U40" s="55"/>
     </row>
-    <row r="41" spans="1:21" ht="12" customHeight="1">
-      <c r="A41" s="73"/>
-      <c r="B41" s="75" t="s">
+    <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="91"/>
+      <c r="B41" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="63"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="89"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -4444,14 +4464,14 @@
       <c r="T41" s="54"/>
       <c r="U41" s="54"/>
     </row>
-    <row r="42" spans="1:21" ht="12" customHeight="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="64"/>
+    <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="92"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="58" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
@@ -4460,10 +4480,12 @@
       <c r="J42" s="58"/>
       <c r="K42" s="10">
         <f>SUM(L42:M42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="48"/>
-      <c r="M42" s="50"/>
+      <c r="M42" s="50">
+        <v>1</v>
+      </c>
       <c r="N42" s="32"/>
       <c r="O42" s="32"/>
       <c r="P42" s="32"/>
@@ -4473,16 +4495,16 @@
       <c r="T42" s="55"/>
       <c r="U42" s="55"/>
     </row>
-    <row r="43" spans="1:21" ht="12" customHeight="1">
-      <c r="A43" s="76" t="s">
+    <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="120"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="126"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4535,14 +4557,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="12" customHeight="1">
-      <c r="A44" s="79"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="121"/>
+    <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="119"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="127"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4550,7 +4572,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=0)*K$45:K$58)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="L44" s="36">
         <f t="shared" ref="L44:S44" si="11">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
@@ -4558,7 +4580,7 @@
       </c>
       <c r="M44" s="36">
         <f>SUMPRODUCT((MOD(ROW(M$45:M$58),2)=0)*M$45:M$58)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="N44" s="36">
         <f t="shared" si="11"/>
@@ -4593,18 +4615,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="12" customHeight="1">
-      <c r="A45" s="73">
+    <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="91">
         <v>1</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="59"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="104"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4623,14 +4645,14 @@
       <c r="T45" s="54"/>
       <c r="U45" s="54"/>
     </row>
-    <row r="46" spans="1:21" ht="12" customHeight="1">
-      <c r="A46" s="74"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="60"/>
+    <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="92"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="105"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4649,18 +4671,18 @@
       <c r="T46" s="55"/>
       <c r="U46" s="55"/>
     </row>
-    <row r="47" spans="1:21" ht="12" customHeight="1">
-      <c r="A47" s="73"/>
-      <c r="B47" s="75" t="s">
+    <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="91"/>
+      <c r="B47" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="63"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="89"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -4688,14 +4710,14 @@
       <c r="T47" s="54"/>
       <c r="U47" s="54"/>
     </row>
-    <row r="48" spans="1:21" ht="12" customHeight="1">
-      <c r="A48" s="74"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="64"/>
+    <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="92"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="90"/>
       <c r="H48" s="58" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -4704,10 +4726,12 @@
       <c r="J48" s="58"/>
       <c r="K48" s="10">
         <f>SUM(L48:S48)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="L48" s="41"/>
-      <c r="M48" s="32"/>
+      <c r="M48" s="32">
+        <v>1.75</v>
+      </c>
       <c r="N48" s="32"/>
       <c r="O48" s="32"/>
       <c r="P48" s="32"/>
@@ -4717,18 +4741,18 @@
       <c r="T48" s="55"/>
       <c r="U48" s="55"/>
     </row>
-    <row r="49" spans="1:21" ht="12" customHeight="1">
-      <c r="A49" s="73"/>
-      <c r="B49" s="75" t="s">
+    <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="91"/>
+      <c r="B49" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="63"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="89"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4756,14 +4780,14 @@
       <c r="T49" s="54"/>
       <c r="U49" s="54"/>
     </row>
-    <row r="50" spans="1:21" ht="12" customHeight="1">
-      <c r="A50" s="74"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="64"/>
+    <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="92"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="90"/>
       <c r="H50" s="58" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -4785,18 +4809,18 @@
       <c r="T50" s="55"/>
       <c r="U50" s="55"/>
     </row>
-    <row r="51" spans="1:21" ht="12" customHeight="1">
-      <c r="A51" s="73">
+    <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="91">
         <v>2</v>
       </c>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="59"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="104"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4815,14 +4839,14 @@
       <c r="T51" s="54"/>
       <c r="U51" s="54"/>
     </row>
-    <row r="52" spans="1:21" ht="12" customHeight="1">
-      <c r="A52" s="74"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="60"/>
+    <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="92"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="105"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4841,18 +4865,18 @@
       <c r="T52" s="55"/>
       <c r="U52" s="55"/>
     </row>
-    <row r="53" spans="1:21" ht="12" customHeight="1">
-      <c r="A53" s="73"/>
-      <c r="B53" s="75" t="s">
+    <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="91"/>
+      <c r="B53" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="69"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="63"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="89"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4879,14 +4903,14 @@
       <c r="T53" s="54"/>
       <c r="U53" s="54"/>
     </row>
-    <row r="54" spans="1:21" ht="12" customHeight="1">
-      <c r="A54" s="74"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="64"/>
+    <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="92"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="90"/>
       <c r="H54" s="58" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4908,18 +4932,18 @@
       <c r="T54" s="55"/>
       <c r="U54" s="55"/>
     </row>
-    <row r="55" spans="1:21" ht="12" customHeight="1">
-      <c r="A55" s="73"/>
-      <c r="B55" s="75" t="s">
+    <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="91"/>
+      <c r="B55" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="69"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="63"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="89"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4947,14 +4971,14 @@
       <c r="T55" s="54"/>
       <c r="U55" s="54"/>
     </row>
-    <row r="56" spans="1:21" ht="12" customHeight="1">
-      <c r="A56" s="74"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="64"/>
+    <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="92"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="90"/>
       <c r="H56" s="58" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4976,18 +5000,18 @@
       <c r="T56" s="55"/>
       <c r="U56" s="55"/>
     </row>
-    <row r="57" spans="1:21" ht="12" customHeight="1">
-      <c r="A57" s="73"/>
-      <c r="B57" s="75" t="s">
+    <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="91"/>
+      <c r="B57" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="69"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="63"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="89"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -5015,14 +5039,14 @@
       <c r="T57" s="54"/>
       <c r="U57" s="54"/>
     </row>
-    <row r="58" spans="1:21" ht="12" customHeight="1">
-      <c r="A58" s="74"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="64"/>
+    <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="92"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="90"/>
       <c r="H58" s="58" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -5044,16 +5068,16 @@
       <c r="T58" s="56"/>
       <c r="U58" s="56"/>
     </row>
-    <row r="59" spans="1:21" ht="12" customHeight="1">
-      <c r="A59" s="76" t="s">
+    <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="120"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="126"/>
       <c r="H59" s="20" t="s">
         <v>21</v>
       </c>
@@ -5106,14 +5130,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="12" customHeight="1">
-      <c r="A60" s="79"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="121"/>
+    <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="119"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="127"/>
       <c r="H60" s="7" t="s">
         <v>23</v>
       </c>
@@ -5164,18 +5188,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="12" customHeight="1">
-      <c r="A61" s="73">
+    <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="91">
         <v>1</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="59"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="104"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -5194,14 +5218,14 @@
       <c r="T61" s="54"/>
       <c r="U61" s="54"/>
     </row>
-    <row r="62" spans="1:21" ht="12" customHeight="1">
-      <c r="A62" s="74"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="60"/>
+    <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="92"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="105"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -5220,18 +5244,18 @@
       <c r="T62" s="55"/>
       <c r="U62" s="55"/>
     </row>
-    <row r="63" spans="1:21" ht="12" customHeight="1">
-      <c r="A63" s="73"/>
-      <c r="B63" s="75" t="s">
+    <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="91"/>
+      <c r="B63" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="69"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="63"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="89"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5259,14 +5283,14 @@
       <c r="T63" s="54"/>
       <c r="U63" s="54"/>
     </row>
-    <row r="64" spans="1:21" ht="12" customHeight="1">
-      <c r="A64" s="74"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="64"/>
+    <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="92"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="90"/>
       <c r="H64" s="58" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5288,18 +5312,18 @@
       <c r="T64" s="55"/>
       <c r="U64" s="55"/>
     </row>
-    <row r="65" spans="1:21" ht="12" customHeight="1">
-      <c r="A65" s="73"/>
-      <c r="B65" s="75" t="s">
+    <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="91"/>
+      <c r="B65" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="67" t="s">
+      <c r="C65" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="69"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="63"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="98"/>
+      <c r="G65" s="89"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -5328,14 +5352,14 @@
       <c r="T65" s="54"/>
       <c r="U65" s="54"/>
     </row>
-    <row r="66" spans="1:21" ht="12" customHeight="1">
-      <c r="A66" s="74"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="64"/>
+    <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="92"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="90"/>
       <c r="H66" s="58" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -5357,18 +5381,18 @@
       <c r="T66" s="55"/>
       <c r="U66" s="55"/>
     </row>
-    <row r="67" spans="1:21" ht="12" customHeight="1">
-      <c r="A67" s="73"/>
-      <c r="B67" s="75" t="s">
+    <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="91"/>
+      <c r="B67" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="67" t="s">
+      <c r="C67" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="69"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="63"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="89"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -5397,14 +5421,14 @@
       <c r="T67" s="54"/>
       <c r="U67" s="54"/>
     </row>
-    <row r="68" spans="1:21" ht="12" customHeight="1">
-      <c r="A68" s="74"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="64"/>
+    <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="92"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="90"/>
       <c r="H68" s="58" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -5426,18 +5450,18 @@
       <c r="T68" s="55"/>
       <c r="U68" s="55"/>
     </row>
-    <row r="69" spans="1:21" ht="12" customHeight="1">
-      <c r="A69" s="73">
+    <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="91">
         <v>2</v>
       </c>
-      <c r="B69" s="67" t="s">
+      <c r="B69" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="59"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="104"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -5456,14 +5480,14 @@
       <c r="T69" s="54"/>
       <c r="U69" s="54"/>
     </row>
-    <row r="70" spans="1:21" ht="12" customHeight="1">
-      <c r="A70" s="74"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="60"/>
+    <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="92"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="105"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -5482,18 +5506,18 @@
       <c r="T70" s="55"/>
       <c r="U70" s="55"/>
     </row>
-    <row r="71" spans="1:21" ht="12" customHeight="1">
-      <c r="A71" s="73"/>
-      <c r="B71" s="75" t="s">
+    <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="91"/>
+      <c r="B71" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="67" t="s">
+      <c r="C71" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="69"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="63"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="89"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5522,14 +5546,14 @@
       <c r="T71" s="54"/>
       <c r="U71" s="54"/>
     </row>
-    <row r="72" spans="1:21" ht="12" customHeight="1">
-      <c r="A72" s="74"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="64"/>
+    <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="92"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="90"/>
       <c r="H72" s="58" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5551,18 +5575,18 @@
       <c r="T72" s="55"/>
       <c r="U72" s="55"/>
     </row>
-    <row r="73" spans="1:21" ht="12" customHeight="1">
-      <c r="A73" s="73"/>
-      <c r="B73" s="75" t="s">
+    <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="91"/>
+      <c r="B73" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="69"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="63"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="89"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -5591,14 +5615,14 @@
       <c r="T73" s="54"/>
       <c r="U73" s="54"/>
     </row>
-    <row r="74" spans="1:21" ht="12" customHeight="1">
-      <c r="A74" s="74"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="64"/>
+    <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="92"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="90"/>
       <c r="H74" s="58" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -5620,18 +5644,18 @@
       <c r="T74" s="55"/>
       <c r="U74" s="55"/>
     </row>
-    <row r="75" spans="1:21" ht="12" customHeight="1">
-      <c r="A75" s="73"/>
-      <c r="B75" s="75" t="s">
+    <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="91"/>
+      <c r="B75" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="67" t="s">
+      <c r="C75" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="69"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="63"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="89"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -5660,14 +5684,14 @@
       <c r="T75" s="54"/>
       <c r="U75" s="54"/>
     </row>
-    <row r="76" spans="1:21" ht="12" customHeight="1">
-      <c r="A76" s="74"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="64"/>
+    <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="92"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="90"/>
       <c r="H76" s="58" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -5689,16 +5713,16 @@
       <c r="T76" s="56"/>
       <c r="U76" s="56"/>
     </row>
-    <row r="77" spans="1:21" ht="12" customHeight="1">
-      <c r="A77" s="76" t="s">
+    <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="120"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="125"/>
+      <c r="G77" s="126"/>
       <c r="H77" s="20" t="s">
         <v>21</v>
       </c>
@@ -5751,14 +5775,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="12" customHeight="1">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="121"/>
+    <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="119"/>
+      <c r="B78" s="120"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="127"/>
       <c r="H78" s="7" t="s">
         <v>23</v>
       </c>
@@ -5809,18 +5833,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="12" customHeight="1">
-      <c r="A79" s="73">
+    <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="91">
         <v>1</v>
       </c>
-      <c r="B79" s="67" t="s">
+      <c r="B79" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="68"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="59"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="104"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5839,14 +5863,14 @@
       <c r="T79" s="54"/>
       <c r="U79" s="54"/>
     </row>
-    <row r="80" spans="1:21" ht="12" customHeight="1">
-      <c r="A80" s="74"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="60"/>
+    <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="92"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="105"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5865,18 +5889,18 @@
       <c r="T80" s="55"/>
       <c r="U80" s="55"/>
     </row>
-    <row r="81" spans="1:21" ht="12" customHeight="1">
-      <c r="A81" s="73"/>
-      <c r="B81" s="75" t="s">
+    <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="91"/>
+      <c r="B81" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="67" t="s">
+      <c r="C81" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D81" s="69"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="63"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="89"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5907,14 +5931,14 @@
       <c r="T81" s="54"/>
       <c r="U81" s="54"/>
     </row>
-    <row r="82" spans="1:21" ht="12" customHeight="1">
-      <c r="A82" s="74"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="64"/>
+    <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="92"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="99"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="90"/>
       <c r="H82" s="58" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5936,18 +5960,18 @@
       <c r="T82" s="55"/>
       <c r="U82" s="55"/>
     </row>
-    <row r="83" spans="1:21" ht="12" customHeight="1">
-      <c r="A83" s="73"/>
-      <c r="B83" s="75" t="s">
+    <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="91"/>
+      <c r="B83" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="67" t="s">
+      <c r="C83" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="69"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="63"/>
+      <c r="D83" s="95"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="89"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5975,14 +5999,14 @@
       <c r="T83" s="54"/>
       <c r="U83" s="54"/>
     </row>
-    <row r="84" spans="1:21" ht="12" customHeight="1">
-      <c r="A84" s="74"/>
-      <c r="B84" s="64"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="64"/>
+    <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="92"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="90"/>
       <c r="H84" s="58" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -6004,16 +6028,16 @@
       <c r="T84" s="55"/>
       <c r="U84" s="55"/>
     </row>
-    <row r="85" spans="1:21" ht="12" customHeight="1">
-      <c r="A85" s="76" t="s">
+    <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="77"/>
-      <c r="C85" s="77"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="120"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="125"/>
+      <c r="F85" s="125"/>
+      <c r="G85" s="126"/>
       <c r="H85" s="20" t="s">
         <v>21</v>
       </c>
@@ -6063,14 +6087,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="12" customHeight="1">
-      <c r="A86" s="79"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="121"/>
+    <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="119"/>
+      <c r="B86" s="120"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="127"/>
       <c r="H86" s="7" t="s">
         <v>23</v>
       </c>
@@ -6121,18 +6145,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="12" customHeight="1">
-      <c r="A87" s="73">
+    <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="91">
         <v>1</v>
       </c>
-      <c r="B87" s="67" t="s">
+      <c r="B87" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="68"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="59"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="104"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -6151,14 +6175,14 @@
       <c r="T87" s="54"/>
       <c r="U87" s="54"/>
     </row>
-    <row r="88" spans="1:21" ht="12" customHeight="1">
-      <c r="A88" s="74"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="60"/>
+    <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="92"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="103"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="105"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -6177,18 +6201,18 @@
       <c r="T88" s="55"/>
       <c r="U88" s="55"/>
     </row>
-    <row r="89" spans="1:21" ht="12" customHeight="1">
-      <c r="A89" s="73"/>
-      <c r="B89" s="75" t="s">
+    <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="91"/>
+      <c r="B89" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="67" t="s">
+      <c r="C89" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="D89" s="69"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="63"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="89"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6216,14 +6240,14 @@
       <c r="T89" s="54"/>
       <c r="U89" s="54"/>
     </row>
-    <row r="90" spans="1:21" ht="12" customHeight="1">
-      <c r="A90" s="74"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="64"/>
+    <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="92"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="97"/>
+      <c r="E90" s="99"/>
+      <c r="F90" s="99"/>
+      <c r="G90" s="90"/>
       <c r="H90" s="58" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6245,18 +6269,18 @@
       <c r="T90" s="55"/>
       <c r="U90" s="55"/>
     </row>
-    <row r="91" spans="1:21" ht="12" customHeight="1">
-      <c r="A91" s="73"/>
-      <c r="B91" s="75" t="s">
+    <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="91"/>
+      <c r="B91" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="126" t="s">
+      <c r="C91" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="69"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="63"/>
+      <c r="D91" s="95"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="89"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -6284,14 +6308,14 @@
       <c r="T91" s="54"/>
       <c r="U91" s="54"/>
     </row>
-    <row r="92" spans="1:21" ht="12" customHeight="1">
-      <c r="A92" s="74"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="64"/>
+    <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="92"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99"/>
+      <c r="G92" s="90"/>
       <c r="H92" s="58" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -6313,18 +6337,18 @@
       <c r="T92" s="55"/>
       <c r="U92" s="55"/>
     </row>
-    <row r="93" spans="1:21" ht="12" customHeight="1">
-      <c r="A93" s="73">
+    <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="91">
         <v>2</v>
       </c>
-      <c r="B93" s="67" t="s">
+      <c r="B93" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="68"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="59"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="95"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="104"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -6343,14 +6367,14 @@
       <c r="T93" s="54"/>
       <c r="U93" s="54"/>
     </row>
-    <row r="94" spans="1:21" ht="12" customHeight="1">
-      <c r="A94" s="74"/>
-      <c r="B94" s="70"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="60"/>
+    <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="92"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="103"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="105"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -6369,18 +6393,18 @@
       <c r="T94" s="55"/>
       <c r="U94" s="55"/>
     </row>
-    <row r="95" spans="1:21" ht="12" customHeight="1">
-      <c r="A95" s="73"/>
-      <c r="B95" s="75" t="s">
+    <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="91"/>
+      <c r="B95" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="67" t="s">
+      <c r="C95" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="69"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="63"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="98"/>
+      <c r="F95" s="98"/>
+      <c r="G95" s="89"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6408,14 +6432,14 @@
       <c r="T95" s="54"/>
       <c r="U95" s="54"/>
     </row>
-    <row r="96" spans="1:21" ht="12" customHeight="1">
-      <c r="A96" s="74"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="70"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="64"/>
+    <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="92"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="90"/>
       <c r="H96" s="58" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6437,18 +6461,18 @@
       <c r="T96" s="55"/>
       <c r="U96" s="55"/>
     </row>
-    <row r="97" spans="1:21" ht="12" customHeight="1">
-      <c r="A97" s="73"/>
-      <c r="B97" s="75" t="s">
+    <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="91"/>
+      <c r="B97" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="67" t="s">
+      <c r="C97" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="69"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="63"/>
+      <c r="D97" s="95"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="98"/>
+      <c r="G97" s="89"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -6476,14 +6500,14 @@
       <c r="T97" s="54"/>
       <c r="U97" s="54"/>
     </row>
-    <row r="98" spans="1:21" ht="12" customHeight="1">
-      <c r="A98" s="74"/>
-      <c r="B98" s="64"/>
-      <c r="C98" s="70"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="64"/>
+    <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="92"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="97"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="90"/>
       <c r="H98" s="58" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -6505,16 +6529,16 @@
       <c r="T98" s="56"/>
       <c r="U98" s="56"/>
     </row>
-    <row r="99" spans="1:21" ht="12" customHeight="1">
-      <c r="A99" s="76" t="s">
+    <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="B99" s="77"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="78"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="120"/>
+      <c r="B99" s="123"/>
+      <c r="C99" s="123"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="125"/>
+      <c r="F99" s="125"/>
+      <c r="G99" s="126"/>
       <c r="H99" s="20" t="s">
         <v>21</v>
       </c>
@@ -6564,14 +6588,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="12" customHeight="1">
-      <c r="A100" s="79"/>
-      <c r="B100" s="80"/>
-      <c r="C100" s="80"/>
-      <c r="D100" s="81"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="121"/>
+    <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="119"/>
+      <c r="B100" s="120"/>
+      <c r="C100" s="120"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="127"/>
       <c r="H100" s="7" t="s">
         <v>23</v>
       </c>
@@ -6622,18 +6646,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="12" customHeight="1">
-      <c r="A101" s="73">
+    <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="91">
         <v>1</v>
       </c>
-      <c r="B101" s="67" t="s">
+      <c r="B101" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="68"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="59"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
+      <c r="G101" s="104"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -6652,14 +6676,14 @@
       <c r="T101" s="54"/>
       <c r="U101" s="54"/>
     </row>
-    <row r="102" spans="1:21" ht="12" customHeight="1">
-      <c r="A102" s="74"/>
-      <c r="B102" s="70"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="60"/>
+    <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="92"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="103"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="105"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -6678,18 +6702,18 @@
       <c r="T102" s="55"/>
       <c r="U102" s="55"/>
     </row>
-    <row r="103" spans="1:21" ht="12" customHeight="1">
-      <c r="A103" s="73"/>
-      <c r="B103" s="75" t="s">
+    <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="91"/>
+      <c r="B103" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="67" t="s">
+      <c r="C103" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="69"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="63"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="89"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6717,14 +6741,14 @@
       <c r="T103" s="54"/>
       <c r="U103" s="54"/>
     </row>
-    <row r="104" spans="1:21" ht="12" customHeight="1">
-      <c r="A104" s="74"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="70"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="64"/>
+    <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="92"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="97"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="90"/>
       <c r="H104" s="58" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6746,18 +6770,18 @@
       <c r="T104" s="55"/>
       <c r="U104" s="55"/>
     </row>
-    <row r="105" spans="1:21" ht="12" customHeight="1">
-      <c r="A105" s="73"/>
-      <c r="B105" s="75" t="s">
+    <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="91"/>
+      <c r="B105" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="67" t="s">
+      <c r="C105" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="D105" s="69"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="63"/>
+      <c r="D105" s="95"/>
+      <c r="E105" s="98"/>
+      <c r="F105" s="98"/>
+      <c r="G105" s="89"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -6785,14 +6809,14 @@
       <c r="T105" s="54"/>
       <c r="U105" s="54"/>
     </row>
-    <row r="106" spans="1:21" ht="12" customHeight="1">
-      <c r="A106" s="74"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="62"/>
-      <c r="G106" s="64"/>
+    <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="92"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="97"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="90"/>
       <c r="H106" s="58" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -6814,18 +6838,18 @@
       <c r="T106" s="55"/>
       <c r="U106" s="55"/>
     </row>
-    <row r="107" spans="1:21" ht="12" customHeight="1">
-      <c r="A107" s="73">
+    <row r="107" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="91">
         <v>2</v>
       </c>
-      <c r="B107" s="67" t="s">
+      <c r="B107" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="68"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="59"/>
+      <c r="C107" s="100"/>
+      <c r="D107" s="95"/>
+      <c r="E107" s="102"/>
+      <c r="F107" s="102"/>
+      <c r="G107" s="104"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -6844,14 +6868,14 @@
       <c r="T107" s="54"/>
       <c r="U107" s="54"/>
     </row>
-    <row r="108" spans="1:21" ht="12" customHeight="1">
-      <c r="A108" s="74"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="71"/>
-      <c r="D108" s="72"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="60"/>
+    <row r="108" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="92"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="101"/>
+      <c r="D108" s="97"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="105"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -6870,18 +6894,18 @@
       <c r="T108" s="55"/>
       <c r="U108" s="55"/>
     </row>
-    <row r="109" spans="1:21" ht="12" customHeight="1">
-      <c r="A109" s="73"/>
-      <c r="B109" s="75" t="s">
+    <row r="109" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="91"/>
+      <c r="B109" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="67" t="s">
+      <c r="C109" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D109" s="69"/>
-      <c r="E109" s="61"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="63"/>
+      <c r="D109" s="95"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="98"/>
+      <c r="G109" s="89"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6909,14 +6933,14 @@
       <c r="T109" s="54"/>
       <c r="U109" s="54"/>
     </row>
-    <row r="110" spans="1:21" ht="12" customHeight="1">
-      <c r="A110" s="74"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="64"/>
+    <row r="110" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="92"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="97"/>
+      <c r="E110" s="99"/>
+      <c r="F110" s="99"/>
+      <c r="G110" s="90"/>
       <c r="H110" s="58" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -6938,18 +6962,18 @@
       <c r="T110" s="55"/>
       <c r="U110" s="55"/>
     </row>
-    <row r="111" spans="1:21" ht="12" customHeight="1">
-      <c r="A111" s="73"/>
-      <c r="B111" s="75" t="s">
+    <row r="111" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="91"/>
+      <c r="B111" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="67" t="s">
+      <c r="C111" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D111" s="69"/>
-      <c r="E111" s="61"/>
-      <c r="F111" s="61"/>
-      <c r="G111" s="63"/>
+      <c r="D111" s="95"/>
+      <c r="E111" s="98"/>
+      <c r="F111" s="98"/>
+      <c r="G111" s="89"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6977,14 +7001,14 @@
       <c r="T111" s="54"/>
       <c r="U111" s="54"/>
     </row>
-    <row r="112" spans="1:21" ht="12" customHeight="1">
-      <c r="A112" s="74"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="72"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="62"/>
-      <c r="G112" s="64"/>
+    <row r="112" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="92"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="97"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="90"/>
       <c r="H112" s="58" t="str">
         <f>IF(E111="","","実績")</f>
         <v/>
@@ -7006,7 +7030,7 @@
       <c r="T112" s="55"/>
       <c r="U112" s="55"/>
     </row>
-    <row r="113" spans="12:21">
+    <row r="113" spans="12:21" x14ac:dyDescent="0.15">
       <c r="L113" s="39"/>
       <c r="M113" s="39"/>
       <c r="N113" s="39"/>
@@ -7024,6 +7048,301 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="319">
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
@@ -7048,301 +7367,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L87:S98 L101:S112 L25:S36 L45:S52 L53:M53 O53:S53 L54:S58">
@@ -7514,7 +7538,7 @@
       <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
@@ -7529,133 +7553,133 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="100" t="s">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="84">
+      <c r="L1" s="75">
         <v>43984</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="84">
+      <c r="M1" s="76"/>
+      <c r="N1" s="75">
         <v>43985</v>
       </c>
-      <c r="O1" s="85"/>
-      <c r="P1" s="84">
+      <c r="O1" s="76"/>
+      <c r="P1" s="75">
         <v>43986</v>
       </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="84">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="75">
         <v>43987</v>
       </c>
-      <c r="S1" s="85"/>
-      <c r="T1" s="84">
+      <c r="S1" s="76"/>
+      <c r="T1" s="75">
         <v>43990</v>
       </c>
-      <c r="U1" s="85"/>
-    </row>
-    <row r="2" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="88" t="s">
+      <c r="U1" s="76"/>
+    </row>
+    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="87"/>
-      <c r="N2" s="86" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="86"/>
-      <c r="P2" s="89" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="86" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="86" t="s">
+      <c r="S2" s="78"/>
+      <c r="T2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="87"/>
-    </row>
-    <row r="3" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="92" t="s">
+      <c r="U2" s="78"/>
+    </row>
+    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="90" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="93" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93" t="s">
+      <c r="S3" s="59"/>
+      <c r="T3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="93"/>
-    </row>
-    <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="105"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="96"/>
+      <c r="U3" s="59"/>
+    </row>
+    <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="83"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -7687,7 +7711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
+    <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="106" t="s">
         <v>20</v>
       </c>
@@ -7696,7 +7720,7 @@
       <c r="D5" s="108"/>
       <c r="E5" s="112"/>
       <c r="F5" s="112"/>
-      <c r="G5" s="124"/>
+      <c r="G5" s="114"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -7746,14 +7770,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="109"/>
       <c r="B6" s="110"/>
       <c r="C6" s="110"/>
       <c r="D6" s="111"/>
       <c r="E6" s="113"/>
       <c r="F6" s="113"/>
-      <c r="G6" s="125"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -7804,16 +7828,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1">
-      <c r="A7" s="114" t="s">
+    <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="117"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -7866,14 +7890,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12" customHeight="1">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="118"/>
+    <row r="8" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -7924,18 +7948,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="12" customHeight="1">
-      <c r="A9" s="73">
+    <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="91">
         <v>1</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="59"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="104"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -7954,14 +7978,14 @@
       <c r="T9" s="54"/>
       <c r="U9" s="54"/>
     </row>
-    <row r="10" spans="1:21" ht="12" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="60"/>
+    <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="92"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -7980,18 +8004,18 @@
       <c r="T10" s="55"/>
       <c r="U10" s="55"/>
     </row>
-    <row r="11" spans="1:21" ht="12" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="75" t="s">
+    <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="91"/>
+      <c r="B11" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="63"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -8019,14 +8043,14 @@
       <c r="T11" s="54"/>
       <c r="U11" s="54"/>
     </row>
-    <row r="12" spans="1:21" ht="12" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="64"/>
+    <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="92"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="58" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
@@ -8053,18 +8077,18 @@
       <c r="T12" s="55"/>
       <c r="U12" s="55"/>
     </row>
-    <row r="13" spans="1:21" ht="12" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="75" t="s">
+    <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="91"/>
+      <c r="B13" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="63"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -8092,14 +8116,14 @@
       <c r="T13" s="54"/>
       <c r="U13" s="54"/>
     </row>
-    <row r="14" spans="1:21" ht="12" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="64"/>
+    <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="92"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="58" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
@@ -8123,18 +8147,18 @@
       <c r="T14" s="55"/>
       <c r="U14" s="55"/>
     </row>
-    <row r="15" spans="1:21" ht="12" customHeight="1">
-      <c r="A15" s="73">
+    <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="91">
         <v>2</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="59"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="104"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -8153,14 +8177,14 @@
       <c r="T15" s="54"/>
       <c r="U15" s="54"/>
     </row>
-    <row r="16" spans="1:21" ht="12" customHeight="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="60"/>
+    <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="92"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="105"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -8179,18 +8203,18 @@
       <c r="T16" s="55"/>
       <c r="U16" s="55"/>
     </row>
-    <row r="17" spans="1:21" ht="12" customHeight="1">
-      <c r="A17" s="73"/>
-      <c r="B17" s="75" t="s">
+    <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="91"/>
+      <c r="B17" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="63"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="89"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -8219,14 +8243,14 @@
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1">
-      <c r="A18" s="74"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="64"/>
+    <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="92"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="58" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
@@ -8248,18 +8272,18 @@
       <c r="T18" s="55"/>
       <c r="U18" s="55"/>
     </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="75" t="s">
+    <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="91"/>
+      <c r="B19" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="63"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -8288,14 +8312,14 @@
       <c r="T19" s="54"/>
       <c r="U19" s="54"/>
     </row>
-    <row r="20" spans="1:21" ht="12" customHeight="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="64"/>
+    <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="92"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="58" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
@@ -8317,18 +8341,18 @@
       <c r="T20" s="55"/>
       <c r="U20" s="55"/>
     </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="75" t="s">
+    <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="91"/>
+      <c r="B21" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="63"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -8357,14 +8381,14 @@
       <c r="T21" s="54"/>
       <c r="U21" s="54"/>
     </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1">
-      <c r="A22" s="74"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
+    <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="92"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="58" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
@@ -8386,16 +8410,16 @@
       <c r="T22" s="55"/>
       <c r="U22" s="55"/>
     </row>
-    <row r="23" spans="1:21" ht="12" customHeight="1">
-      <c r="A23" s="76" t="s">
+    <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="120"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="126"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -8446,14 +8470,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="12" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="121"/>
+    <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="119"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="127"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -8504,18 +8528,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="12" customHeight="1">
-      <c r="A25" s="73">
+    <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="91">
         <v>1</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="59"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="104"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -8534,14 +8558,14 @@
       <c r="T25" s="54"/>
       <c r="U25" s="54"/>
     </row>
-    <row r="26" spans="1:21" ht="12" customHeight="1">
-      <c r="A26" s="74"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="60"/>
+    <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="92"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -8560,18 +8584,18 @@
       <c r="T26" s="55"/>
       <c r="U26" s="55"/>
     </row>
-    <row r="27" spans="1:21" ht="12" customHeight="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="75" t="s">
+    <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="91"/>
+      <c r="B27" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="63"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="89"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -8600,14 +8624,14 @@
       <c r="T27" s="54"/>
       <c r="U27" s="54"/>
     </row>
-    <row r="28" spans="1:21" ht="12" customHeight="1">
-      <c r="A28" s="74"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="64"/>
+    <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="92"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="58" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
@@ -8629,18 +8653,18 @@
       <c r="T28" s="55"/>
       <c r="U28" s="55"/>
     </row>
-    <row r="29" spans="1:21" ht="12" customHeight="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="75" t="s">
+    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="91"/>
+      <c r="B29" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="63"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -8669,14 +8693,14 @@
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
     </row>
-    <row r="30" spans="1:21" ht="12" customHeight="1">
-      <c r="A30" s="74"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="64"/>
+    <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="92"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="58" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
@@ -8698,18 +8722,18 @@
       <c r="T30" s="55"/>
       <c r="U30" s="55"/>
     </row>
-    <row r="31" spans="1:21" ht="12" customHeight="1">
-      <c r="A31" s="73"/>
-      <c r="B31" s="75" t="s">
+    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="91"/>
+      <c r="B31" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="63"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -8738,14 +8762,14 @@
       <c r="T31" s="54"/>
       <c r="U31" s="54"/>
     </row>
-    <row r="32" spans="1:21" ht="12" customHeight="1">
-      <c r="A32" s="74"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="64"/>
+    <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="92"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="58" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
@@ -8767,18 +8791,18 @@
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
     </row>
-    <row r="33" spans="1:21" ht="12" customHeight="1">
-      <c r="A33" s="73"/>
-      <c r="B33" s="75" t="s">
+    <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="91"/>
+      <c r="B33" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="63"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -8807,14 +8831,14 @@
       <c r="T33" s="54"/>
       <c r="U33" s="54"/>
     </row>
-    <row r="34" spans="1:21" ht="12" customHeight="1">
-      <c r="A34" s="74"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="64"/>
+    <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="92"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="58" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
@@ -8836,18 +8860,18 @@
       <c r="T34" s="55"/>
       <c r="U34" s="55"/>
     </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1">
-      <c r="A35" s="73">
+    <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="91">
         <v>2</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="59"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="104"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -8866,14 +8890,14 @@
       <c r="T35" s="54"/>
       <c r="U35" s="54"/>
     </row>
-    <row r="36" spans="1:21" ht="12" customHeight="1">
-      <c r="A36" s="74"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="60"/>
+    <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="92"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="105"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -8892,18 +8916,18 @@
       <c r="T36" s="55"/>
       <c r="U36" s="55"/>
     </row>
-    <row r="37" spans="1:21" ht="12" customHeight="1">
-      <c r="A37" s="73"/>
-      <c r="B37" s="75" t="s">
+    <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="91"/>
+      <c r="B37" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="63"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="89"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -8932,14 +8956,14 @@
       <c r="T37" s="54"/>
       <c r="U37" s="54"/>
     </row>
-    <row r="38" spans="1:21" ht="12" customHeight="1">
-      <c r="A38" s="74"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="64"/>
+    <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="92"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="90"/>
       <c r="H38" s="58" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -8963,18 +8987,18 @@
       <c r="T38" s="55"/>
       <c r="U38" s="55"/>
     </row>
-    <row r="39" spans="1:21" ht="12" customHeight="1">
-      <c r="A39" s="73"/>
-      <c r="B39" s="75" t="s">
+    <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="91"/>
+      <c r="B39" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="63"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="89"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -9002,14 +9026,14 @@
       <c r="T39" s="54"/>
       <c r="U39" s="54"/>
     </row>
-    <row r="40" spans="1:21" ht="12" customHeight="1">
-      <c r="A40" s="74"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="64"/>
+    <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="92"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="58" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
@@ -9033,18 +9057,18 @@
       <c r="T40" s="55"/>
       <c r="U40" s="55"/>
     </row>
-    <row r="41" spans="1:21" ht="12" customHeight="1">
-      <c r="A41" s="73"/>
-      <c r="B41" s="75" t="s">
+    <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="91"/>
+      <c r="B41" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="63"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="89"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -9072,14 +9096,14 @@
       <c r="T41" s="54"/>
       <c r="U41" s="54"/>
     </row>
-    <row r="42" spans="1:21" ht="12" customHeight="1">
-      <c r="A42" s="74"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="64"/>
+    <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="92"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="58" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
@@ -9103,16 +9127,16 @@
       <c r="T42" s="55"/>
       <c r="U42" s="55"/>
     </row>
-    <row r="43" spans="1:21" ht="12" customHeight="1">
-      <c r="A43" s="76" t="s">
+    <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="120"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="126"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -9165,14 +9189,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="12" customHeight="1">
-      <c r="A44" s="79"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="121"/>
+    <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="119"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="127"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -9223,18 +9247,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="12" customHeight="1">
-      <c r="A45" s="73">
+    <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="91">
         <v>1</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="59"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="104"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -9253,14 +9277,14 @@
       <c r="T45" s="54"/>
       <c r="U45" s="54"/>
     </row>
-    <row r="46" spans="1:21" ht="12" customHeight="1">
-      <c r="A46" s="74"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="60"/>
+    <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="92"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="105"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -9279,18 +9303,18 @@
       <c r="T46" s="55"/>
       <c r="U46" s="55"/>
     </row>
-    <row r="47" spans="1:21" ht="12" customHeight="1">
-      <c r="A47" s="73"/>
-      <c r="B47" s="75" t="s">
+    <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="91"/>
+      <c r="B47" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="63"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="89"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -9319,14 +9343,14 @@
       <c r="T47" s="54"/>
       <c r="U47" s="54"/>
     </row>
-    <row r="48" spans="1:21" ht="12" customHeight="1">
-      <c r="A48" s="74"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="64"/>
+    <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="92"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="90"/>
       <c r="H48" s="58" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -9352,18 +9376,18 @@
       <c r="T48" s="55"/>
       <c r="U48" s="55"/>
     </row>
-    <row r="49" spans="1:21" ht="12" customHeight="1">
-      <c r="A49" s="73"/>
-      <c r="B49" s="75" t="s">
+    <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="91"/>
+      <c r="B49" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="63"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="89"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -9394,14 +9418,14 @@
       <c r="T49" s="54"/>
       <c r="U49" s="54"/>
     </row>
-    <row r="50" spans="1:21" ht="12" customHeight="1">
-      <c r="A50" s="74"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="64"/>
+    <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="92"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="90"/>
       <c r="H50" s="58" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -9427,18 +9451,18 @@
       <c r="T50" s="55"/>
       <c r="U50" s="55"/>
     </row>
-    <row r="51" spans="1:21" ht="12" customHeight="1">
-      <c r="A51" s="73">
+    <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="91">
         <v>2</v>
       </c>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="59"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="104"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -9457,14 +9481,14 @@
       <c r="T51" s="54"/>
       <c r="U51" s="54"/>
     </row>
-    <row r="52" spans="1:21" ht="12" customHeight="1">
-      <c r="A52" s="74"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="60"/>
+    <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="92"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="105"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -9483,18 +9507,18 @@
       <c r="T52" s="55"/>
       <c r="U52" s="55"/>
     </row>
-    <row r="53" spans="1:21" ht="12" customHeight="1">
-      <c r="A53" s="73"/>
-      <c r="B53" s="75" t="s">
+    <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="91"/>
+      <c r="B53" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="69"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="63"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="89"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -9523,14 +9547,14 @@
       <c r="T53" s="54"/>
       <c r="U53" s="54"/>
     </row>
-    <row r="54" spans="1:21" ht="12" customHeight="1">
-      <c r="A54" s="74"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="64"/>
+    <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="92"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="90"/>
       <c r="H54" s="58" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -9554,18 +9578,18 @@
       <c r="T54" s="55"/>
       <c r="U54" s="55"/>
     </row>
-    <row r="55" spans="1:21" ht="12" customHeight="1">
-      <c r="A55" s="73"/>
-      <c r="B55" s="75" t="s">
+    <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="91"/>
+      <c r="B55" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="69"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="63"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="89"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -9594,14 +9618,14 @@
       <c r="T55" s="54"/>
       <c r="U55" s="54"/>
     </row>
-    <row r="56" spans="1:21" ht="12" customHeight="1">
-      <c r="A56" s="74"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="64"/>
+    <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="92"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="90"/>
       <c r="H56" s="58" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -9627,18 +9651,18 @@
       <c r="T56" s="55"/>
       <c r="U56" s="55"/>
     </row>
-    <row r="57" spans="1:21" ht="12" customHeight="1">
-      <c r="A57" s="73"/>
-      <c r="B57" s="75" t="s">
+    <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="91"/>
+      <c r="B57" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="69"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="63"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="89"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -9666,14 +9690,14 @@
       <c r="T57" s="54"/>
       <c r="U57" s="54"/>
     </row>
-    <row r="58" spans="1:21" ht="12" customHeight="1">
-      <c r="A58" s="74"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="64"/>
+    <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="92"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="90"/>
       <c r="H58" s="58" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -9699,16 +9723,16 @@
       <c r="T58" s="56"/>
       <c r="U58" s="56"/>
     </row>
-    <row r="59" spans="1:21" ht="12" customHeight="1">
-      <c r="A59" s="76" t="s">
+    <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="120"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="126"/>
       <c r="H59" s="20" t="s">
         <v>21</v>
       </c>
@@ -9761,14 +9785,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="12" customHeight="1">
-      <c r="A60" s="79"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="121"/>
+    <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="119"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="127"/>
       <c r="H60" s="7" t="s">
         <v>23</v>
       </c>
@@ -9819,18 +9843,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="12" customHeight="1">
-      <c r="A61" s="73">
+    <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="91">
         <v>1</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="59"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="104"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -9849,14 +9873,14 @@
       <c r="T61" s="54"/>
       <c r="U61" s="54"/>
     </row>
-    <row r="62" spans="1:21" ht="12" customHeight="1">
-      <c r="A62" s="74"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="60"/>
+    <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="92"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="105"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -9875,18 +9899,18 @@
       <c r="T62" s="55"/>
       <c r="U62" s="55"/>
     </row>
-    <row r="63" spans="1:21" ht="12" customHeight="1">
-      <c r="A63" s="73"/>
-      <c r="B63" s="75" t="s">
+    <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="91"/>
+      <c r="B63" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="69"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="63"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="89"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -9918,14 +9942,14 @@
       <c r="T63" s="54"/>
       <c r="U63" s="54"/>
     </row>
-    <row r="64" spans="1:21" ht="12" customHeight="1">
-      <c r="A64" s="74"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="64"/>
+    <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="92"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="90"/>
       <c r="H64" s="58" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -9951,18 +9975,18 @@
       <c r="T64" s="55"/>
       <c r="U64" s="55"/>
     </row>
-    <row r="65" spans="1:21" ht="12" customHeight="1">
-      <c r="A65" s="73"/>
-      <c r="B65" s="75" t="s">
+    <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="91"/>
+      <c r="B65" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="67" t="s">
+      <c r="C65" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="69"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="63"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="98"/>
+      <c r="G65" s="89"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -9991,14 +10015,14 @@
       <c r="T65" s="54"/>
       <c r="U65" s="54"/>
     </row>
-    <row r="66" spans="1:21" ht="12" customHeight="1">
-      <c r="A66" s="74"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="64"/>
+    <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="92"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="90"/>
       <c r="H66" s="58" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -10022,18 +10046,18 @@
       <c r="T66" s="55"/>
       <c r="U66" s="55"/>
     </row>
-    <row r="67" spans="1:21" ht="12" customHeight="1">
-      <c r="A67" s="73"/>
-      <c r="B67" s="75" t="s">
+    <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="91"/>
+      <c r="B67" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="67" t="s">
+      <c r="C67" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="69"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="63"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="89"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -10062,14 +10086,14 @@
       <c r="T67" s="54"/>
       <c r="U67" s="54"/>
     </row>
-    <row r="68" spans="1:21" ht="12" customHeight="1">
-      <c r="A68" s="74"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="64"/>
+    <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="92"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="90"/>
       <c r="H68" s="58" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -10093,18 +10117,18 @@
       <c r="T68" s="55"/>
       <c r="U68" s="55"/>
     </row>
-    <row r="69" spans="1:21" ht="12" customHeight="1">
-      <c r="A69" s="73">
+    <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="91">
         <v>2</v>
       </c>
-      <c r="B69" s="67" t="s">
+      <c r="B69" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="59"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="104"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -10123,14 +10147,14 @@
       <c r="T69" s="54"/>
       <c r="U69" s="54"/>
     </row>
-    <row r="70" spans="1:21" ht="12" customHeight="1">
-      <c r="A70" s="74"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="60"/>
+    <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="92"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="105"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -10149,18 +10173,18 @@
       <c r="T70" s="55"/>
       <c r="U70" s="55"/>
     </row>
-    <row r="71" spans="1:21" ht="12" customHeight="1">
-      <c r="A71" s="73"/>
-      <c r="B71" s="75" t="s">
+    <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="91"/>
+      <c r="B71" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="67" t="s">
+      <c r="C71" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="69"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="63"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="89"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -10189,14 +10213,14 @@
       <c r="T71" s="54"/>
       <c r="U71" s="54"/>
     </row>
-    <row r="72" spans="1:21" ht="12" customHeight="1">
-      <c r="A72" s="74"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="64"/>
+    <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="92"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="90"/>
       <c r="H72" s="58" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -10220,18 +10244,18 @@
       <c r="T72" s="55"/>
       <c r="U72" s="55"/>
     </row>
-    <row r="73" spans="1:21" ht="12" customHeight="1">
-      <c r="A73" s="73"/>
-      <c r="B73" s="75" t="s">
+    <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="91"/>
+      <c r="B73" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="69"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="63"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="89"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -10260,14 +10284,14 @@
       <c r="T73" s="54"/>
       <c r="U73" s="54"/>
     </row>
-    <row r="74" spans="1:21" ht="12" customHeight="1">
-      <c r="A74" s="74"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="64"/>
+    <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="92"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="90"/>
       <c r="H74" s="58" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -10291,18 +10315,18 @@
       <c r="T74" s="55"/>
       <c r="U74" s="55"/>
     </row>
-    <row r="75" spans="1:21" ht="12" customHeight="1">
-      <c r="A75" s="73"/>
-      <c r="B75" s="75" t="s">
+    <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="91"/>
+      <c r="B75" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="67" t="s">
+      <c r="C75" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="69"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="63"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="89"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -10331,14 +10355,14 @@
       <c r="T75" s="54"/>
       <c r="U75" s="54"/>
     </row>
-    <row r="76" spans="1:21" ht="12" customHeight="1">
-      <c r="A76" s="74"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="64"/>
+    <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="92"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="90"/>
       <c r="H76" s="58" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -10362,16 +10386,16 @@
       <c r="T76" s="56"/>
       <c r="U76" s="56"/>
     </row>
-    <row r="77" spans="1:21" ht="12" customHeight="1">
-      <c r="A77" s="76" t="s">
+    <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="120"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="125"/>
+      <c r="G77" s="126"/>
       <c r="H77" s="20" t="s">
         <v>21</v>
       </c>
@@ -10424,14 +10448,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="12" customHeight="1">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="121"/>
+    <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="119"/>
+      <c r="B78" s="120"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="127"/>
       <c r="H78" s="7" t="s">
         <v>23</v>
       </c>
@@ -10482,18 +10506,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="12" customHeight="1">
-      <c r="A79" s="73">
+    <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="91">
         <v>1</v>
       </c>
-      <c r="B79" s="67" t="s">
+      <c r="B79" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="68"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="59"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="104"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -10512,14 +10536,14 @@
       <c r="T79" s="54"/>
       <c r="U79" s="54"/>
     </row>
-    <row r="80" spans="1:21" ht="12" customHeight="1">
-      <c r="A80" s="74"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="60"/>
+    <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="92"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="105"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -10538,18 +10562,18 @@
       <c r="T80" s="55"/>
       <c r="U80" s="55"/>
     </row>
-    <row r="81" spans="1:21" ht="12" customHeight="1">
-      <c r="A81" s="73"/>
-      <c r="B81" s="75" t="s">
+    <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="91"/>
+      <c r="B81" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="67" t="s">
+      <c r="C81" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D81" s="69"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="63"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="89"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -10581,14 +10605,14 @@
       <c r="T81" s="54"/>
       <c r="U81" s="54"/>
     </row>
-    <row r="82" spans="1:21" ht="12" customHeight="1">
-      <c r="A82" s="74"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="64"/>
+    <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="92"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="99"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="90"/>
       <c r="H82" s="58" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -10614,18 +10638,18 @@
       </c>
       <c r="U82" s="55"/>
     </row>
-    <row r="83" spans="1:21" ht="12" customHeight="1">
-      <c r="A83" s="73"/>
-      <c r="B83" s="75" t="s">
+    <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="91"/>
+      <c r="B83" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="67" t="s">
+      <c r="C83" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="69"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="63"/>
+      <c r="D83" s="95"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="89"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -10654,14 +10678,14 @@
       <c r="T83" s="54"/>
       <c r="U83" s="54"/>
     </row>
-    <row r="84" spans="1:21" ht="12" customHeight="1">
-      <c r="A84" s="74"/>
-      <c r="B84" s="64"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="64"/>
+    <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="92"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="90"/>
       <c r="H84" s="58" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -10687,16 +10711,16 @@
       </c>
       <c r="U84" s="55"/>
     </row>
-    <row r="85" spans="1:21" ht="12" customHeight="1">
-      <c r="A85" s="76" t="s">
+    <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="77"/>
-      <c r="C85" s="77"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="120"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="125"/>
+      <c r="F85" s="125"/>
+      <c r="G85" s="126"/>
       <c r="H85" s="20" t="s">
         <v>21</v>
       </c>
@@ -10746,14 +10770,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="12" customHeight="1">
-      <c r="A86" s="79"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="121"/>
+    <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="119"/>
+      <c r="B86" s="120"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="127"/>
       <c r="H86" s="7" t="s">
         <v>23</v>
       </c>
@@ -10804,18 +10828,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="12" customHeight="1">
-      <c r="A87" s="73">
+    <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="91">
         <v>1</v>
       </c>
-      <c r="B87" s="67" t="s">
+      <c r="B87" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="68"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="59"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="104"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -10834,14 +10858,14 @@
       <c r="T87" s="54"/>
       <c r="U87" s="54"/>
     </row>
-    <row r="88" spans="1:21" ht="12" customHeight="1">
-      <c r="A88" s="74"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="60"/>
+    <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="92"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="103"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="105"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -10860,18 +10884,18 @@
       <c r="T88" s="55"/>
       <c r="U88" s="55"/>
     </row>
-    <row r="89" spans="1:21" ht="12" customHeight="1">
-      <c r="A89" s="73"/>
-      <c r="B89" s="75" t="s">
+    <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="91"/>
+      <c r="B89" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="67" t="s">
+      <c r="C89" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="D89" s="69"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="63"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="89"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -10900,14 +10924,14 @@
       <c r="T89" s="54"/>
       <c r="U89" s="54"/>
     </row>
-    <row r="90" spans="1:21" ht="12" customHeight="1">
-      <c r="A90" s="74"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="64"/>
+    <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="92"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="97"/>
+      <c r="E90" s="99"/>
+      <c r="F90" s="99"/>
+      <c r="G90" s="90"/>
       <c r="H90" s="58" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -10931,18 +10955,18 @@
       </c>
       <c r="U90" s="55"/>
     </row>
-    <row r="91" spans="1:21" ht="12" customHeight="1">
-      <c r="A91" s="73"/>
-      <c r="B91" s="75" t="s">
+    <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="91"/>
+      <c r="B91" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="126" t="s">
+      <c r="C91" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="69"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="63"/>
+      <c r="D91" s="95"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="89"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -10971,14 +10995,14 @@
       <c r="T91" s="54"/>
       <c r="U91" s="54"/>
     </row>
-    <row r="92" spans="1:21" ht="12" customHeight="1">
-      <c r="A92" s="74"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="64"/>
+    <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="92"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99"/>
+      <c r="G92" s="90"/>
       <c r="H92" s="58" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -11000,18 +11024,18 @@
       <c r="T92" s="55"/>
       <c r="U92" s="55"/>
     </row>
-    <row r="93" spans="1:21" ht="12" customHeight="1">
-      <c r="A93" s="73">
+    <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="91">
         <v>2</v>
       </c>
-      <c r="B93" s="67" t="s">
+      <c r="B93" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="68"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="59"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="95"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="104"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -11030,14 +11054,14 @@
       <c r="T93" s="54"/>
       <c r="U93" s="54"/>
     </row>
-    <row r="94" spans="1:21" ht="12" customHeight="1">
-      <c r="A94" s="74"/>
-      <c r="B94" s="70"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="60"/>
+    <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="92"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="103"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="105"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -11056,18 +11080,18 @@
       <c r="T94" s="55"/>
       <c r="U94" s="55"/>
     </row>
-    <row r="95" spans="1:21" ht="12" customHeight="1">
-      <c r="A95" s="73"/>
-      <c r="B95" s="75" t="s">
+    <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="91"/>
+      <c r="B95" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="67" t="s">
+      <c r="C95" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="69"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="63"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="98"/>
+      <c r="F95" s="98"/>
+      <c r="G95" s="89"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -11096,14 +11120,14 @@
       <c r="T95" s="54"/>
       <c r="U95" s="54"/>
     </row>
-    <row r="96" spans="1:21" ht="12" customHeight="1">
-      <c r="A96" s="74"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="70"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="64"/>
+    <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="92"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="90"/>
       <c r="H96" s="58" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -11127,18 +11151,18 @@
       </c>
       <c r="U96" s="55"/>
     </row>
-    <row r="97" spans="1:21" ht="12" customHeight="1">
-      <c r="A97" s="73"/>
-      <c r="B97" s="75" t="s">
+    <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="91"/>
+      <c r="B97" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="67" t="s">
+      <c r="C97" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="69"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="63"/>
+      <c r="D97" s="95"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="98"/>
+      <c r="G97" s="89"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -11166,14 +11190,14 @@
       <c r="T97" s="54"/>
       <c r="U97" s="54"/>
     </row>
-    <row r="98" spans="1:21" ht="12" customHeight="1">
-      <c r="A98" s="74"/>
-      <c r="B98" s="64"/>
-      <c r="C98" s="70"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="64"/>
+    <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="92"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="97"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="90"/>
       <c r="H98" s="58" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -11197,16 +11221,16 @@
       </c>
       <c r="U98" s="56"/>
     </row>
-    <row r="99" spans="1:21" ht="12" customHeight="1">
-      <c r="A99" s="76" t="s">
+    <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="B99" s="77"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="78"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="120"/>
+      <c r="B99" s="123"/>
+      <c r="C99" s="123"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="125"/>
+      <c r="F99" s="125"/>
+      <c r="G99" s="126"/>
       <c r="H99" s="20" t="s">
         <v>21</v>
       </c>
@@ -11256,14 +11280,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="12" customHeight="1">
-      <c r="A100" s="79"/>
-      <c r="B100" s="80"/>
-      <c r="C100" s="80"/>
-      <c r="D100" s="81"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="121"/>
+    <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="119"/>
+      <c r="B100" s="120"/>
+      <c r="C100" s="120"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="127"/>
       <c r="H100" s="7" t="s">
         <v>23</v>
       </c>
@@ -11314,18 +11338,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="12" customHeight="1">
-      <c r="A101" s="73">
+    <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="91">
         <v>1</v>
       </c>
-      <c r="B101" s="67" t="s">
+      <c r="B101" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="68"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="59"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
+      <c r="G101" s="104"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -11344,14 +11368,14 @@
       <c r="T101" s="54"/>
       <c r="U101" s="54"/>
     </row>
-    <row r="102" spans="1:21" ht="12" customHeight="1">
-      <c r="A102" s="74"/>
-      <c r="B102" s="70"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="60"/>
+    <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="92"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="103"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="105"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -11370,18 +11394,18 @@
       <c r="T102" s="55"/>
       <c r="U102" s="55"/>
     </row>
-    <row r="103" spans="1:21" ht="12" customHeight="1">
-      <c r="A103" s="73"/>
-      <c r="B103" s="75" t="s">
+    <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="91"/>
+      <c r="B103" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="67" t="s">
+      <c r="C103" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="69"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="63"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="89"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -11410,14 +11434,14 @@
       <c r="T103" s="54"/>
       <c r="U103" s="54"/>
     </row>
-    <row r="104" spans="1:21" ht="12" customHeight="1">
-      <c r="A104" s="74"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="70"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="64"/>
+    <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="92"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="97"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="90"/>
       <c r="H104" s="58" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -11441,18 +11465,18 @@
       </c>
       <c r="U104" s="55"/>
     </row>
-    <row r="105" spans="1:21" ht="12" customHeight="1">
-      <c r="A105" s="73"/>
-      <c r="B105" s="75" t="s">
+    <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="91"/>
+      <c r="B105" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="67" t="s">
+      <c r="C105" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="D105" s="69"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="63"/>
+      <c r="D105" s="95"/>
+      <c r="E105" s="98"/>
+      <c r="F105" s="98"/>
+      <c r="G105" s="89"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -11481,14 +11505,14 @@
       <c r="T105" s="54"/>
       <c r="U105" s="54"/>
     </row>
-    <row r="106" spans="1:21" ht="12" customHeight="1">
-      <c r="A106" s="74"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="62"/>
-      <c r="G106" s="64"/>
+    <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="92"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="97"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="90"/>
       <c r="H106" s="58" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -11510,18 +11534,18 @@
       <c r="T106" s="55"/>
       <c r="U106" s="55"/>
     </row>
-    <row r="107" spans="1:21" ht="12" customHeight="1">
-      <c r="A107" s="73">
+    <row r="107" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="91">
         <v>2</v>
       </c>
-      <c r="B107" s="67" t="s">
+      <c r="B107" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="68"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="59"/>
+      <c r="C107" s="100"/>
+      <c r="D107" s="95"/>
+      <c r="E107" s="102"/>
+      <c r="F107" s="102"/>
+      <c r="G107" s="104"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -11540,14 +11564,14 @@
       <c r="T107" s="54"/>
       <c r="U107" s="54"/>
     </row>
-    <row r="108" spans="1:21" ht="12" customHeight="1">
-      <c r="A108" s="74"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="71"/>
-      <c r="D108" s="72"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="60"/>
+    <row r="108" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="92"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="101"/>
+      <c r="D108" s="97"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="105"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -11566,18 +11590,18 @@
       <c r="T108" s="55"/>
       <c r="U108" s="55"/>
     </row>
-    <row r="109" spans="1:21" ht="12" customHeight="1">
-      <c r="A109" s="73"/>
-      <c r="B109" s="75" t="s">
+    <row r="109" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="91"/>
+      <c r="B109" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="67" t="s">
+      <c r="C109" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D109" s="69"/>
-      <c r="E109" s="61"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="63"/>
+      <c r="D109" s="95"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="98"/>
+      <c r="G109" s="89"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -11606,14 +11630,14 @@
       <c r="T109" s="54"/>
       <c r="U109" s="54"/>
     </row>
-    <row r="110" spans="1:21" ht="12" customHeight="1">
-      <c r="A110" s="74"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="70"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="64"/>
+    <row r="110" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="92"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="97"/>
+      <c r="E110" s="99"/>
+      <c r="F110" s="99"/>
+      <c r="G110" s="90"/>
       <c r="H110" s="58" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -11635,18 +11659,18 @@
       <c r="T110" s="55"/>
       <c r="U110" s="55"/>
     </row>
-    <row r="111" spans="1:21" ht="12" customHeight="1">
-      <c r="A111" s="73"/>
-      <c r="B111" s="75" t="s">
+    <row r="111" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="91"/>
+      <c r="B111" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="67" t="s">
+      <c r="C111" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D111" s="69"/>
-      <c r="E111" s="61"/>
-      <c r="F111" s="61"/>
-      <c r="G111" s="63"/>
+      <c r="D111" s="95"/>
+      <c r="E111" s="98"/>
+      <c r="F111" s="98"/>
+      <c r="G111" s="89"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -11675,14 +11699,14 @@
       <c r="T111" s="54"/>
       <c r="U111" s="54"/>
     </row>
-    <row r="112" spans="1:21" ht="12" customHeight="1">
-      <c r="A112" s="74"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="70"/>
-      <c r="D112" s="72"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="62"/>
-      <c r="G112" s="64"/>
+    <row r="112" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="92"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="97"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="90"/>
       <c r="H112" s="58" t="str">
         <f>IF(E111="","","実績")</f>
         <v/>
@@ -11704,7 +11728,7 @@
       <c r="T112" s="55"/>
       <c r="U112" s="55"/>
     </row>
-    <row r="113" spans="12:21" ht="10.5">
+    <row r="113" spans="12:21" x14ac:dyDescent="0.15">
       <c r="L113" s="39"/>
       <c r="M113" s="39"/>
       <c r="N113" s="39"/>
@@ -11722,6 +11746,300 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="318">
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="T3:U3"/>
@@ -11746,300 +12064,6 @@
     <mergeCell ref="F89:F90"/>
     <mergeCell ref="G89:G90"/>
     <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L87:S98 L101:S112 L25:S36">
@@ -12209,15 +12233,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -12401,6 +12416,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -12408,14 +12432,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4873661D-A2E2-45ED-A7B1-A92DDC4DD32C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12433,6 +12449,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>

--- a/00_management/WBSガントチャート.xlsx
+++ b/00_management/WBSガントチャート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758879B3-D8EE-4E6E-B4AD-BE741B9CA3FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8018C81-5DC6-4AA7-AA42-2D08FBB2C7B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18975" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復2" sheetId="2" r:id="rId1"/>
@@ -1618,96 +1618,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1759,6 +1669,66 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1789,44 +1759,74 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2889,10 +2889,10 @@
   <dimension ref="A1:X113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2911,135 +2911,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="70" t="s">
+      <c r="A1" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="K1" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="75">
+      <c r="L1" s="117">
         <v>43990</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="75">
+      <c r="M1" s="118"/>
+      <c r="N1" s="117">
         <v>43991</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="75">
+      <c r="O1" s="118"/>
+      <c r="P1" s="117">
         <v>43992</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="75">
+      <c r="Q1" s="118"/>
+      <c r="R1" s="117">
         <v>43993</v>
       </c>
-      <c r="S1" s="76"/>
-      <c r="T1" s="75">
+      <c r="S1" s="118"/>
+      <c r="T1" s="117">
         <v>43994</v>
       </c>
-      <c r="U1" s="76"/>
+      <c r="U1" s="118"/>
     </row>
     <row r="2" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="77" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="79" t="s">
+      <c r="M2" s="120"/>
+      <c r="N2" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="120"/>
+      <c r="P2" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="120"/>
+      <c r="R2" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="77" t="s">
+      <c r="S2" s="120"/>
+      <c r="T2" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="78"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="74"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="116"/>
       <c r="X2" s="39"/>
     </row>
     <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="84" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86" t="s">
+      <c r="M3" s="127"/>
+      <c r="N3" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86" t="s">
+      <c r="O3" s="127"/>
+      <c r="P3" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="59" t="s">
+      <c r="Q3" s="127"/>
+      <c r="R3" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59" t="s">
+      <c r="S3" s="90"/>
+      <c r="T3" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="59"/>
+      <c r="U3" s="90"/>
     </row>
     <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="83"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="125"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3072,15 +3072,15 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="114"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="104"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -3131,13 +3131,13 @@
       </c>
     </row>
     <row r="6" spans="1:24" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="115"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -3145,7 +3145,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="47">
         <f>SUM(K8,K24,K44,K60,K78,K86)</f>
-        <v>20.75</v>
+        <v>51.25</v>
       </c>
       <c r="L6" s="47">
         <f>SUM(L8,L24,L44,L60,L78,L86)</f>
@@ -3157,14 +3157,14 @@
       </c>
       <c r="N6" s="47">
         <f>SUM(N8,N24,N44,N60,N78,N86)</f>
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="O6" s="47">
         <f>SUM(O8,O24,O44,O60,O78,O86)</f>
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="P6" s="47">
-        <f t="shared" ref="M6:Q6" si="1">SUM(Q8,Q24,Q44,Q60,Q78,Q86)</f>
+        <f t="shared" ref="P6:Q6" si="1">SUM(Q8,Q24,Q44,Q60,Q78,Q86)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="47">
@@ -3189,15 +3189,15 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="62"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -3251,13 +3251,13 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="119"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="63"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -3309,17 +3309,17 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="91">
+      <c r="A9" s="61">
         <v>1</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="104"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="74"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -3339,13 +3339,13 @@
       <c r="U9" s="54"/>
     </row>
     <row r="10" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="92"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="105"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -3365,17 +3365,17 @@
       <c r="U10" s="55"/>
     </row>
     <row r="11" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="91"/>
-      <c r="B11" s="93" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="89"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -3404,13 +3404,13 @@
       <c r="U11" s="54"/>
     </row>
     <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="92"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="90"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="58" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
@@ -3438,17 +3438,17 @@
       <c r="U12" s="55"/>
     </row>
     <row r="13" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
-      <c r="B13" s="93" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="89"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -3477,13 +3477,13 @@
       <c r="U13" s="54"/>
     </row>
     <row r="14" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="92"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="90"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="58" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
@@ -3510,17 +3510,17 @@
       <c r="U14" s="55"/>
     </row>
     <row r="15" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="91">
+      <c r="A15" s="61">
         <v>2</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="104"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3540,13 +3540,13 @@
       <c r="U15" s="54"/>
     </row>
     <row r="16" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="92"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="105"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3566,17 +3566,17 @@
       <c r="U16" s="55"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="91"/>
-      <c r="B17" s="93" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="89"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -3605,13 +3605,13 @@
       <c r="U17" s="54"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="92"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="90"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="58" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
@@ -3636,17 +3636,17 @@
       <c r="U18" s="55"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="91"/>
-      <c r="B19" s="93" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="89"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3675,13 +3675,13 @@
       <c r="U19" s="54"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="92"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="90"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="58" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
@@ -3706,17 +3706,17 @@
       <c r="U20" s="55"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="91"/>
-      <c r="B21" s="93" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="89"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3745,13 +3745,13 @@
       <c r="U21" s="54"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="92"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="90"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="58" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
@@ -3776,15 +3776,15 @@
       <c r="U22" s="55"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="126"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="84"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3836,13 +3836,13 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="119"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="127"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="85"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3894,17 +3894,17 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="91">
+      <c r="A25" s="61">
         <v>1</v>
       </c>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="104"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="74"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3924,13 +3924,13 @@
       <c r="U25" s="54"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="92"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="105"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="75"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3950,17 +3950,17 @@
       <c r="U26" s="55"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="91"/>
-      <c r="B27" s="93" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="89"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3989,13 +3989,13 @@
       <c r="U27" s="54"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="92"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="90"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="58" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
@@ -4020,17 +4020,17 @@
       <c r="U28" s="55"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="91"/>
-      <c r="B29" s="93" t="s">
+      <c r="A29" s="61"/>
+      <c r="B29" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="89"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -4059,13 +4059,13 @@
       <c r="U29" s="54"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="92"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="90"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="60"/>
       <c r="H30" s="58" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
@@ -4090,17 +4090,17 @@
       <c r="U30" s="55"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="91"/>
-      <c r="B31" s="93" t="s">
+      <c r="A31" s="61"/>
+      <c r="B31" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="95"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="89"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -4129,13 +4129,13 @@
       <c r="U31" s="54"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="92"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="90"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="60"/>
       <c r="H32" s="58" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
@@ -4160,17 +4160,17 @@
       <c r="U32" s="55"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="91"/>
-      <c r="B33" s="93" t="s">
+      <c r="A33" s="61"/>
+      <c r="B33" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="94" t="s">
+      <c r="C33" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="95"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="89"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -4199,13 +4199,13 @@
       <c r="U33" s="54"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="92"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="90"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="60"/>
       <c r="H34" s="58" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
@@ -4230,17 +4230,17 @@
       <c r="U34" s="55"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="91">
+      <c r="A35" s="61">
         <v>2</v>
       </c>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="104"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="74"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -4260,13 +4260,13 @@
       <c r="U35" s="54"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="92"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="105"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -4286,17 +4286,17 @@
       <c r="U36" s="55"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="91"/>
-      <c r="B37" s="93" t="s">
+      <c r="A37" s="61"/>
+      <c r="B37" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="94" t="s">
+      <c r="C37" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="95"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="89"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="59"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -4325,13 +4325,13 @@
       <c r="U37" s="54"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="92"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="90"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="58" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -4356,17 +4356,17 @@
       <c r="U38" s="55"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="91"/>
-      <c r="B39" s="93" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="95"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="89"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="59"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -4395,13 +4395,13 @@
       <c r="U39" s="54"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="92"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="90"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="60"/>
       <c r="H40" s="58" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
@@ -4426,17 +4426,17 @@
       <c r="U40" s="55"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="91"/>
-      <c r="B41" s="93" t="s">
+      <c r="A41" s="61"/>
+      <c r="B41" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="95"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="89"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -4465,13 +4465,13 @@
       <c r="U41" s="54"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="92"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="90"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="60"/>
       <c r="H42" s="58" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
@@ -4496,15 +4496,15 @@
       <c r="U42" s="55"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="122" t="s">
+      <c r="A43" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="126"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="84"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4558,13 +4558,13 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="119"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="127"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="85"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4572,7 +4572,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=0)*K$45:K$58)</f>
-        <v>1.75</v>
+        <v>14</v>
       </c>
       <c r="L44" s="36">
         <f t="shared" ref="L44:S44" si="11">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="N44" s="36">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="O44" s="36">
         <f t="shared" si="11"/>
@@ -4616,17 +4616,17 @@
       </c>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="91">
+      <c r="A45" s="61">
         <v>1</v>
       </c>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="100"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="104"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="74"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4646,13 +4646,13 @@
       <c r="U45" s="54"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="92"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="105"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="75"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4672,17 +4672,17 @@
       <c r="U46" s="55"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="91"/>
-      <c r="B47" s="93" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="94" t="s">
+      <c r="C47" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="95"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="89"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -4711,13 +4711,13 @@
       <c r="U47" s="54"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="92"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="90"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="60"/>
       <c r="H48" s="58" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -4726,13 +4726,15 @@
       <c r="J48" s="58"/>
       <c r="K48" s="10">
         <f>SUM(L48:S48)</f>
-        <v>1.75</v>
+        <v>6.75</v>
       </c>
       <c r="L48" s="41"/>
       <c r="M48" s="32">
         <v>1.75</v>
       </c>
-      <c r="N48" s="32"/>
+      <c r="N48" s="32">
+        <v>5</v>
+      </c>
       <c r="O48" s="32"/>
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
@@ -4742,17 +4744,17 @@
       <c r="U48" s="55"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="91"/>
-      <c r="B49" s="93" t="s">
+      <c r="A49" s="61"/>
+      <c r="B49" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="94" t="s">
+      <c r="C49" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="95"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="89"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="59"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4781,13 +4783,13 @@
       <c r="U49" s="54"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="92"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="90"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="60"/>
       <c r="H50" s="58" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -4796,11 +4798,13 @@
       <c r="J50" s="58"/>
       <c r="K50" s="10">
         <f>SUM(L50:S50)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L50" s="41"/>
       <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
+      <c r="N50" s="32">
+        <v>4</v>
+      </c>
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="32"/>
@@ -4810,17 +4814,17 @@
       <c r="U50" s="55"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="91">
+      <c r="A51" s="61">
         <v>2</v>
       </c>
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="100"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="104"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="74"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4840,13 +4844,13 @@
       <c r="U51" s="54"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="92"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="105"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="75"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4866,17 +4870,17 @@
       <c r="U52" s="55"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="91"/>
-      <c r="B53" s="93" t="s">
+      <c r="A53" s="61"/>
+      <c r="B53" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="94" t="s">
+      <c r="C53" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="95"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="89"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="59"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4904,13 +4908,13 @@
       <c r="U53" s="54"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="92"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="90"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="60"/>
       <c r="H54" s="58" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4919,11 +4923,13 @@
       <c r="J54" s="58"/>
       <c r="K54" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L54" s="41"/>
       <c r="M54" s="32"/>
-      <c r="N54" s="31"/>
+      <c r="N54" s="31">
+        <v>1.25</v>
+      </c>
       <c r="O54" s="32"/>
       <c r="P54" s="32"/>
       <c r="Q54" s="32"/>
@@ -4933,17 +4939,17 @@
       <c r="U54" s="55"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="91"/>
-      <c r="B55" s="93" t="s">
+      <c r="A55" s="61"/>
+      <c r="B55" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="94" t="s">
+      <c r="C55" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="95"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="89"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="59"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4972,13 +4978,13 @@
       <c r="U55" s="54"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="92"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="90"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="60"/>
       <c r="H56" s="58" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -4987,11 +4993,13 @@
       <c r="J56" s="58"/>
       <c r="K56" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="41"/>
       <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
+      <c r="N56" s="32">
+        <v>1</v>
+      </c>
       <c r="O56" s="32"/>
       <c r="P56" s="32"/>
       <c r="Q56" s="32"/>
@@ -5001,17 +5009,17 @@
       <c r="U56" s="55"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="91"/>
-      <c r="B57" s="93" t="s">
+      <c r="A57" s="61"/>
+      <c r="B57" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="94" t="s">
+      <c r="C57" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="95"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="89"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="59"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -5040,13 +5048,13 @@
       <c r="U57" s="54"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="92"/>
-      <c r="B58" s="90"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="90"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="60"/>
       <c r="H58" s="58" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -5055,11 +5063,13 @@
       <c r="J58" s="58"/>
       <c r="K58" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="43"/>
       <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
+      <c r="N58" s="44">
+        <v>1</v>
+      </c>
       <c r="O58" s="44"/>
       <c r="P58" s="44"/>
       <c r="Q58" s="44"/>
@@ -5069,15 +5079,15 @@
       <c r="U58" s="56"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="122" t="s">
+      <c r="A59" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="123"/>
-      <c r="C59" s="123"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="126"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="84"/>
       <c r="H59" s="20" t="s">
         <v>21</v>
       </c>
@@ -5131,13 +5141,13 @@
       </c>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="119"/>
-      <c r="B60" s="120"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="121"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="127"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="85"/>
       <c r="H60" s="7" t="s">
         <v>23</v>
       </c>
@@ -5145,7 +5155,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="L60" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
@@ -5157,11 +5167,11 @@
       </c>
       <c r="N60" s="36">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O60" s="36">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="P60" s="36">
         <f t="shared" si="15"/>
@@ -5189,17 +5199,17 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="91">
+      <c r="A61" s="61">
         <v>1</v>
       </c>
-      <c r="B61" s="94" t="s">
+      <c r="B61" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="100"/>
-      <c r="D61" s="95"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="104"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="74"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -5219,13 +5229,13 @@
       <c r="U61" s="54"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="92"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="105"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="75"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -5245,17 +5255,17 @@
       <c r="U62" s="55"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="91"/>
-      <c r="B63" s="93" t="s">
+      <c r="A63" s="61"/>
+      <c r="B63" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="94" t="s">
+      <c r="C63" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="95"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="89"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="59"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5284,13 +5294,13 @@
       <c r="U63" s="54"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="92"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="90"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="60"/>
       <c r="H64" s="58" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5299,12 +5309,16 @@
       <c r="J64" s="58"/>
       <c r="K64" s="10">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L64" s="41"/>
       <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
+      <c r="N64" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="O64" s="32">
+        <v>5</v>
+      </c>
       <c r="P64" s="32"/>
       <c r="Q64" s="32"/>
       <c r="R64" s="32"/>
@@ -5313,17 +5327,17 @@
       <c r="U64" s="55"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="91"/>
-      <c r="B65" s="93" t="s">
+      <c r="A65" s="61"/>
+      <c r="B65" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="94" t="s">
+      <c r="C65" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="95"/>
-      <c r="E65" s="98"/>
-      <c r="F65" s="98"/>
-      <c r="G65" s="89"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -5353,13 +5367,13 @@
       <c r="U65" s="54"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="92"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="90"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="60"/>
       <c r="H66" s="58" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -5368,12 +5382,14 @@
       <c r="J66" s="58"/>
       <c r="K66" s="10">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="L66" s="41"/>
       <c r="M66" s="32"/>
       <c r="N66" s="32"/>
-      <c r="O66" s="32"/>
+      <c r="O66" s="32">
+        <v>5.75</v>
+      </c>
       <c r="P66" s="32"/>
       <c r="Q66" s="32"/>
       <c r="R66" s="32"/>
@@ -5382,17 +5398,17 @@
       <c r="U66" s="55"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="91"/>
-      <c r="B67" s="93" t="s">
+      <c r="A67" s="61"/>
+      <c r="B67" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="94" t="s">
+      <c r="C67" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="95"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="89"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="59"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -5422,13 +5438,13 @@
       <c r="U67" s="54"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="92"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="90"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="60"/>
       <c r="H68" s="58" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -5437,12 +5453,14 @@
       <c r="J68" s="58"/>
       <c r="K68" s="10">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L68" s="41"/>
       <c r="M68" s="32"/>
       <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
+      <c r="O68" s="32">
+        <v>6</v>
+      </c>
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
@@ -5451,17 +5469,17 @@
       <c r="U68" s="55"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="91">
+      <c r="A69" s="61">
         <v>2</v>
       </c>
-      <c r="B69" s="94" t="s">
+      <c r="B69" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="100"/>
-      <c r="D69" s="95"/>
-      <c r="E69" s="102"/>
-      <c r="F69" s="102"/>
-      <c r="G69" s="104"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="74"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -5481,13 +5499,13 @@
       <c r="U69" s="54"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="92"/>
-      <c r="B70" s="96"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="103"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="105"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="75"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -5507,17 +5525,17 @@
       <c r="U70" s="55"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="91"/>
-      <c r="B71" s="93" t="s">
+      <c r="A71" s="61"/>
+      <c r="B71" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="94" t="s">
+      <c r="C71" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="95"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="98"/>
-      <c r="G71" s="89"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="59"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5547,13 +5565,13 @@
       <c r="U71" s="54"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="92"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="90"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="58" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5576,17 +5594,17 @@
       <c r="U72" s="55"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="91"/>
-      <c r="B73" s="93" t="s">
+      <c r="A73" s="61"/>
+      <c r="B73" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="94" t="s">
+      <c r="C73" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="95"/>
-      <c r="E73" s="98"/>
-      <c r="F73" s="98"/>
-      <c r="G73" s="89"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="59"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -5616,13 +5634,13 @@
       <c r="U73" s="54"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="92"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="90"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="60"/>
       <c r="H74" s="58" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -5645,17 +5663,17 @@
       <c r="U74" s="55"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="91"/>
-      <c r="B75" s="93" t="s">
+      <c r="A75" s="61"/>
+      <c r="B75" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="94" t="s">
+      <c r="C75" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="95"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="98"/>
-      <c r="G75" s="89"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="59"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -5685,13 +5703,13 @@
       <c r="U75" s="54"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="92"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="90"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="60"/>
       <c r="H76" s="58" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -5714,15 +5732,15 @@
       <c r="U76" s="56"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="122" t="s">
+      <c r="A77" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="123"/>
-      <c r="C77" s="123"/>
-      <c r="D77" s="124"/>
-      <c r="E77" s="125"/>
-      <c r="F77" s="125"/>
-      <c r="G77" s="126"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="84"/>
       <c r="H77" s="20" t="s">
         <v>21</v>
       </c>
@@ -5776,13 +5794,13 @@
       </c>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="119"/>
-      <c r="B78" s="120"/>
-      <c r="C78" s="120"/>
-      <c r="D78" s="121"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="127"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="85"/>
       <c r="H78" s="7" t="s">
         <v>23</v>
       </c>
@@ -5834,17 +5852,17 @@
       </c>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="91">
+      <c r="A79" s="61">
         <v>1</v>
       </c>
-      <c r="B79" s="94" t="s">
+      <c r="B79" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="100"/>
-      <c r="D79" s="95"/>
-      <c r="E79" s="102"/>
-      <c r="F79" s="102"/>
-      <c r="G79" s="104"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="74"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5864,13 +5882,13 @@
       <c r="U79" s="54"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="92"/>
-      <c r="B80" s="96"/>
-      <c r="C80" s="101"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="105"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="75"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5890,17 +5908,17 @@
       <c r="U80" s="55"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="91"/>
-      <c r="B81" s="93" t="s">
+      <c r="A81" s="61"/>
+      <c r="B81" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="94" t="s">
+      <c r="C81" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D81" s="95"/>
-      <c r="E81" s="98"/>
-      <c r="F81" s="98"/>
-      <c r="G81" s="89"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="59"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5932,13 +5950,13 @@
       <c r="U81" s="54"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="92"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="97"/>
-      <c r="E82" s="99"/>
-      <c r="F82" s="99"/>
-      <c r="G82" s="90"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="60"/>
       <c r="H82" s="58" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5961,17 +5979,17 @@
       <c r="U82" s="55"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="91"/>
-      <c r="B83" s="93" t="s">
+      <c r="A83" s="61"/>
+      <c r="B83" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="94" t="s">
+      <c r="C83" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="95"/>
-      <c r="E83" s="98"/>
-      <c r="F83" s="98"/>
-      <c r="G83" s="89"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="59"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -6000,13 +6018,13 @@
       <c r="U83" s="54"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="92"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="99"/>
-      <c r="F84" s="99"/>
-      <c r="G84" s="90"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="60"/>
       <c r="H84" s="58" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -6029,15 +6047,15 @@
       <c r="U84" s="55"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="122" t="s">
+      <c r="A85" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="125"/>
-      <c r="F85" s="125"/>
-      <c r="G85" s="126"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="84"/>
       <c r="H85" s="20" t="s">
         <v>21</v>
       </c>
@@ -6088,13 +6106,13 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="119"/>
-      <c r="B86" s="120"/>
-      <c r="C86" s="120"/>
-      <c r="D86" s="121"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="127"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="85"/>
       <c r="H86" s="7" t="s">
         <v>23</v>
       </c>
@@ -6146,17 +6164,17 @@
       </c>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="91">
+      <c r="A87" s="61">
         <v>1</v>
       </c>
-      <c r="B87" s="94" t="s">
+      <c r="B87" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="100"/>
-      <c r="D87" s="95"/>
-      <c r="E87" s="102"/>
-      <c r="F87" s="102"/>
-      <c r="G87" s="104"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="74"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -6176,13 +6194,13 @@
       <c r="U87" s="54"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="92"/>
-      <c r="B88" s="96"/>
-      <c r="C88" s="101"/>
-      <c r="D88" s="97"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="103"/>
-      <c r="G88" s="105"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="75"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -6202,17 +6220,17 @@
       <c r="U88" s="55"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="91"/>
-      <c r="B89" s="93" t="s">
+      <c r="A89" s="61"/>
+      <c r="B89" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="94" t="s">
+      <c r="C89" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D89" s="95"/>
-      <c r="E89" s="98"/>
-      <c r="F89" s="98"/>
-      <c r="G89" s="89"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="59"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6241,13 +6259,13 @@
       <c r="U89" s="54"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="92"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="97"/>
-      <c r="E90" s="99"/>
-      <c r="F90" s="99"/>
-      <c r="G90" s="90"/>
+      <c r="A90" s="62"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="60"/>
       <c r="H90" s="58" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6270,17 +6288,17 @@
       <c r="U90" s="55"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="91"/>
-      <c r="B91" s="93" t="s">
+      <c r="A91" s="61"/>
+      <c r="B91" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="128" t="s">
+      <c r="C91" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="95"/>
-      <c r="E91" s="98"/>
-      <c r="F91" s="98"/>
-      <c r="G91" s="89"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="68"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="59"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -6309,13 +6327,13 @@
       <c r="U91" s="54"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="92"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="96"/>
-      <c r="D92" s="97"/>
-      <c r="E92" s="99"/>
-      <c r="F92" s="99"/>
-      <c r="G92" s="90"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="60"/>
       <c r="H92" s="58" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -6338,17 +6356,17 @@
       <c r="U92" s="55"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="91">
+      <c r="A93" s="61">
         <v>2</v>
       </c>
-      <c r="B93" s="94" t="s">
+      <c r="B93" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="100"/>
-      <c r="D93" s="95"/>
-      <c r="E93" s="102"/>
-      <c r="F93" s="102"/>
-      <c r="G93" s="104"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="74"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -6368,13 +6386,13 @@
       <c r="U93" s="54"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="92"/>
-      <c r="B94" s="96"/>
-      <c r="C94" s="101"/>
-      <c r="D94" s="97"/>
-      <c r="E94" s="103"/>
-      <c r="F94" s="103"/>
-      <c r="G94" s="105"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="75"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -6394,17 +6412,17 @@
       <c r="U94" s="55"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="91"/>
-      <c r="B95" s="93" t="s">
+      <c r="A95" s="61"/>
+      <c r="B95" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="94" t="s">
+      <c r="C95" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="95"/>
-      <c r="E95" s="98"/>
-      <c r="F95" s="98"/>
-      <c r="G95" s="89"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="59"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6433,13 +6451,13 @@
       <c r="U95" s="54"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="92"/>
-      <c r="B96" s="90"/>
-      <c r="C96" s="96"/>
-      <c r="D96" s="97"/>
-      <c r="E96" s="99"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="90"/>
+      <c r="A96" s="62"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69"/>
+      <c r="G96" s="60"/>
       <c r="H96" s="58" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6462,17 +6480,17 @@
       <c r="U96" s="55"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="91"/>
-      <c r="B97" s="93" t="s">
+      <c r="A97" s="61"/>
+      <c r="B97" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="94" t="s">
+      <c r="C97" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="95"/>
-      <c r="E97" s="98"/>
-      <c r="F97" s="98"/>
-      <c r="G97" s="89"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="68"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="59"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -6501,13 +6519,13 @@
       <c r="U97" s="54"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="92"/>
-      <c r="B98" s="90"/>
-      <c r="C98" s="96"/>
-      <c r="D98" s="97"/>
-      <c r="E98" s="99"/>
-      <c r="F98" s="99"/>
-      <c r="G98" s="90"/>
+      <c r="A98" s="62"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="60"/>
       <c r="H98" s="58" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -6530,15 +6548,15 @@
       <c r="U98" s="56"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="122" t="s">
+      <c r="A99" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B99" s="123"/>
-      <c r="C99" s="123"/>
-      <c r="D99" s="124"/>
-      <c r="E99" s="125"/>
-      <c r="F99" s="125"/>
-      <c r="G99" s="126"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="84"/>
       <c r="H99" s="20" t="s">
         <v>21</v>
       </c>
@@ -6589,13 +6607,13 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="119"/>
-      <c r="B100" s="120"/>
-      <c r="C100" s="120"/>
-      <c r="D100" s="121"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="127"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="85"/>
       <c r="H100" s="7" t="s">
         <v>23</v>
       </c>
@@ -6647,17 +6665,17 @@
       </c>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="91">
+      <c r="A101" s="61">
         <v>1</v>
       </c>
-      <c r="B101" s="94" t="s">
+      <c r="B101" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="100"/>
-      <c r="D101" s="95"/>
-      <c r="E101" s="102"/>
-      <c r="F101" s="102"/>
-      <c r="G101" s="104"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="74"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -6677,13 +6695,13 @@
       <c r="U101" s="54"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="92"/>
-      <c r="B102" s="96"/>
-      <c r="C102" s="101"/>
-      <c r="D102" s="97"/>
-      <c r="E102" s="103"/>
-      <c r="F102" s="103"/>
-      <c r="G102" s="105"/>
+      <c r="A102" s="62"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="75"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -6703,17 +6721,17 @@
       <c r="U102" s="55"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="91"/>
-      <c r="B103" s="93" t="s">
+      <c r="A103" s="61"/>
+      <c r="B103" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="94" t="s">
+      <c r="C103" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="95"/>
-      <c r="E103" s="98"/>
-      <c r="F103" s="98"/>
-      <c r="G103" s="89"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="68"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="59"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6742,13 +6760,13 @@
       <c r="U103" s="54"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="92"/>
-      <c r="B104" s="90"/>
-      <c r="C104" s="96"/>
-      <c r="D104" s="97"/>
-      <c r="E104" s="99"/>
-      <c r="F104" s="99"/>
-      <c r="G104" s="90"/>
+      <c r="A104" s="62"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="60"/>
       <c r="H104" s="58" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6771,17 +6789,17 @@
       <c r="U104" s="55"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="91"/>
-      <c r="B105" s="93" t="s">
+      <c r="A105" s="61"/>
+      <c r="B105" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="94" t="s">
+      <c r="C105" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D105" s="95"/>
-      <c r="E105" s="98"/>
-      <c r="F105" s="98"/>
-      <c r="G105" s="89"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="59"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -6810,13 +6828,13 @@
       <c r="U105" s="54"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="92"/>
-      <c r="B106" s="90"/>
-      <c r="C106" s="96"/>
-      <c r="D106" s="97"/>
-      <c r="E106" s="99"/>
-      <c r="F106" s="99"/>
-      <c r="G106" s="90"/>
+      <c r="A106" s="62"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="69"/>
+      <c r="G106" s="60"/>
       <c r="H106" s="58" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -6839,17 +6857,17 @@
       <c r="U106" s="55"/>
     </row>
     <row r="107" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="91">
+      <c r="A107" s="61">
         <v>2</v>
       </c>
-      <c r="B107" s="94" t="s">
+      <c r="B107" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="100"/>
-      <c r="D107" s="95"/>
-      <c r="E107" s="102"/>
-      <c r="F107" s="102"/>
-      <c r="G107" s="104"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="74"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -6869,13 +6887,13 @@
       <c r="U107" s="54"/>
     </row>
     <row r="108" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="92"/>
-      <c r="B108" s="96"/>
-      <c r="C108" s="101"/>
-      <c r="D108" s="97"/>
-      <c r="E108" s="103"/>
-      <c r="F108" s="103"/>
-      <c r="G108" s="105"/>
+      <c r="A108" s="62"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="75"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -6895,17 +6913,17 @@
       <c r="U108" s="55"/>
     </row>
     <row r="109" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="91"/>
-      <c r="B109" s="93" t="s">
+      <c r="A109" s="61"/>
+      <c r="B109" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="94" t="s">
+      <c r="C109" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D109" s="95"/>
-      <c r="E109" s="98"/>
-      <c r="F109" s="98"/>
-      <c r="G109" s="89"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="68"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="59"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6934,13 +6952,13 @@
       <c r="U109" s="54"/>
     </row>
     <row r="110" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="92"/>
-      <c r="B110" s="90"/>
-      <c r="C110" s="96"/>
-      <c r="D110" s="97"/>
-      <c r="E110" s="99"/>
-      <c r="F110" s="99"/>
-      <c r="G110" s="90"/>
+      <c r="A110" s="62"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="69"/>
+      <c r="G110" s="60"/>
       <c r="H110" s="58" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -6963,17 +6981,17 @@
       <c r="U110" s="55"/>
     </row>
     <row r="111" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="91"/>
-      <c r="B111" s="93" t="s">
+      <c r="A111" s="61"/>
+      <c r="B111" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="94" t="s">
+      <c r="C111" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D111" s="95"/>
-      <c r="E111" s="98"/>
-      <c r="F111" s="98"/>
-      <c r="G111" s="89"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="59"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -7002,13 +7020,13 @@
       <c r="U111" s="54"/>
     </row>
     <row r="112" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="92"/>
-      <c r="B112" s="90"/>
-      <c r="C112" s="96"/>
-      <c r="D112" s="97"/>
-      <c r="E112" s="99"/>
-      <c r="F112" s="99"/>
-      <c r="G112" s="90"/>
+      <c r="A112" s="62"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="60"/>
       <c r="H112" s="58" t="str">
         <f>IF(E111="","","実績")</f>
         <v/>
@@ -7048,277 +7066,30 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="319">
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
@@ -7343,30 +7114,277 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L87:S98 L101:S112 L25:S36 L45:S52 L53:M53 O53:S53 L54:S58">
@@ -7520,10 +7538,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.62992125984251968" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="8" scale="77" fitToHeight="4" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="8" scale="77" fitToHeight="4" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7554,132 +7572,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="70" t="s">
+      <c r="A1" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="K1" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="75">
+      <c r="L1" s="117">
         <v>43984</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="75">
+      <c r="M1" s="118"/>
+      <c r="N1" s="117">
         <v>43985</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="75">
+      <c r="O1" s="118"/>
+      <c r="P1" s="117">
         <v>43986</v>
       </c>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="75">
+      <c r="Q1" s="118"/>
+      <c r="R1" s="117">
         <v>43987</v>
       </c>
-      <c r="S1" s="76"/>
-      <c r="T1" s="75">
+      <c r="S1" s="118"/>
+      <c r="T1" s="117">
         <v>43990</v>
       </c>
-      <c r="U1" s="76"/>
+      <c r="U1" s="118"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="79" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="77" t="s">
+      <c r="M2" s="120"/>
+      <c r="N2" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="119"/>
+      <c r="P2" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="77" t="s">
+      <c r="Q2" s="120"/>
+      <c r="R2" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="78"/>
-      <c r="T2" s="77" t="s">
+      <c r="S2" s="120"/>
+      <c r="T2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="78"/>
+      <c r="U2" s="120"/>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="84" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86" t="s">
+      <c r="M3" s="127"/>
+      <c r="N3" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86" t="s">
+      <c r="O3" s="127"/>
+      <c r="P3" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="59" t="s">
+      <c r="Q3" s="127"/>
+      <c r="R3" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59" t="s">
+      <c r="S3" s="90"/>
+      <c r="T3" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="59"/>
+      <c r="U3" s="90"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="83"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="125"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -7712,15 +7730,15 @@
       </c>
     </row>
     <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="114"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="104"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -7771,13 +7789,13 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="115"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -7829,15 +7847,15 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="62"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -7891,13 +7909,13 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="119"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="63"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -7949,17 +7967,17 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="91">
+      <c r="A9" s="61">
         <v>1</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="104"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="74"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -7979,13 +7997,13 @@
       <c r="U9" s="54"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="92"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="105"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -8005,17 +8023,17 @@
       <c r="U10" s="55"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="91"/>
-      <c r="B11" s="93" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="89"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -8044,13 +8062,13 @@
       <c r="U11" s="54"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="92"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="90"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="58" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
@@ -8078,17 +8096,17 @@
       <c r="U12" s="55"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
-      <c r="B13" s="93" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="89"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -8117,13 +8135,13 @@
       <c r="U13" s="54"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="92"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="90"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="58" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
@@ -8148,17 +8166,17 @@
       <c r="U14" s="55"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="91">
+      <c r="A15" s="61">
         <v>2</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="104"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -8178,13 +8196,13 @@
       <c r="U15" s="54"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="92"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="105"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -8204,17 +8222,17 @@
       <c r="U16" s="55"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="91"/>
-      <c r="B17" s="93" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="89"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -8244,13 +8262,13 @@
       <c r="U17" s="54"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="92"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="90"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="58" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
@@ -8273,17 +8291,17 @@
       <c r="U18" s="55"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="91"/>
-      <c r="B19" s="93" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="89"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -8313,13 +8331,13 @@
       <c r="U19" s="54"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="92"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="90"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="58" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
@@ -8342,17 +8360,17 @@
       <c r="U20" s="55"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="91"/>
-      <c r="B21" s="93" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="89"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -8382,13 +8400,13 @@
       <c r="U21" s="54"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="92"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="90"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="58" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
@@ -8411,15 +8429,15 @@
       <c r="U22" s="55"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="126"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="84"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -8471,13 +8489,13 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="119"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="127"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="85"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -8529,17 +8547,17 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="91">
+      <c r="A25" s="61">
         <v>1</v>
       </c>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="104"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="74"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -8559,13 +8577,13 @@
       <c r="U25" s="54"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="92"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="105"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="75"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -8585,17 +8603,17 @@
       <c r="U26" s="55"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="91"/>
-      <c r="B27" s="93" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="89"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -8625,13 +8643,13 @@
       <c r="U27" s="54"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="92"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="90"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="58" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
@@ -8654,17 +8672,17 @@
       <c r="U28" s="55"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="91"/>
-      <c r="B29" s="93" t="s">
+      <c r="A29" s="61"/>
+      <c r="B29" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="89"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -8694,13 +8712,13 @@
       <c r="U29" s="54"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="92"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="90"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="60"/>
       <c r="H30" s="58" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
@@ -8723,17 +8741,17 @@
       <c r="U30" s="55"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="91"/>
-      <c r="B31" s="93" t="s">
+      <c r="A31" s="61"/>
+      <c r="B31" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="95"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="89"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -8763,13 +8781,13 @@
       <c r="U31" s="54"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="92"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="90"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="60"/>
       <c r="H32" s="58" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
@@ -8792,17 +8810,17 @@
       <c r="U32" s="55"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="91"/>
-      <c r="B33" s="93" t="s">
+      <c r="A33" s="61"/>
+      <c r="B33" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="94" t="s">
+      <c r="C33" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="95"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="89"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -8832,13 +8850,13 @@
       <c r="U33" s="54"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="92"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="90"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="60"/>
       <c r="H34" s="58" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
@@ -8861,17 +8879,17 @@
       <c r="U34" s="55"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="91">
+      <c r="A35" s="61">
         <v>2</v>
       </c>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="104"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="74"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -8891,13 +8909,13 @@
       <c r="U35" s="54"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="92"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="105"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -8917,17 +8935,17 @@
       <c r="U36" s="55"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="91"/>
-      <c r="B37" s="93" t="s">
+      <c r="A37" s="61"/>
+      <c r="B37" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="94" t="s">
+      <c r="C37" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="95"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="89"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="59"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -8957,13 +8975,13 @@
       <c r="U37" s="54"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="92"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="90"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="58" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -8988,17 +9006,17 @@
       <c r="U38" s="55"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="91"/>
-      <c r="B39" s="93" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="95"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="89"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="59"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -9027,13 +9045,13 @@
       <c r="U39" s="54"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="92"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="90"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="60"/>
       <c r="H40" s="58" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
@@ -9058,17 +9076,17 @@
       <c r="U40" s="55"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="91"/>
-      <c r="B41" s="93" t="s">
+      <c r="A41" s="61"/>
+      <c r="B41" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="95"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="89"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -9097,13 +9115,13 @@
       <c r="U41" s="54"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="92"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="90"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="60"/>
       <c r="H42" s="58" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
@@ -9128,15 +9146,15 @@
       <c r="U42" s="55"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="122" t="s">
+      <c r="A43" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="126"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="84"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -9190,13 +9208,13 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="119"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="127"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="85"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -9248,17 +9266,17 @@
       </c>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="91">
+      <c r="A45" s="61">
         <v>1</v>
       </c>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="100"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="104"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="74"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -9278,13 +9296,13 @@
       <c r="U45" s="54"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="92"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="105"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="75"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -9304,17 +9322,17 @@
       <c r="U46" s="55"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="91"/>
-      <c r="B47" s="93" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="94" t="s">
+      <c r="C47" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="95"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="89"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -9344,13 +9362,13 @@
       <c r="U47" s="54"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="92"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="90"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="60"/>
       <c r="H48" s="58" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -9377,17 +9395,17 @@
       <c r="U48" s="55"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="91"/>
-      <c r="B49" s="93" t="s">
+      <c r="A49" s="61"/>
+      <c r="B49" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="94" t="s">
+      <c r="C49" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="95"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="89"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="59"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -9419,13 +9437,13 @@
       <c r="U49" s="54"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="92"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="90"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="60"/>
       <c r="H50" s="58" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -9452,17 +9470,17 @@
       <c r="U50" s="55"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="91">
+      <c r="A51" s="61">
         <v>2</v>
       </c>
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="100"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="104"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="74"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -9482,13 +9500,13 @@
       <c r="U51" s="54"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="92"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="105"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="75"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -9508,17 +9526,17 @@
       <c r="U52" s="55"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="91"/>
-      <c r="B53" s="93" t="s">
+      <c r="A53" s="61"/>
+      <c r="B53" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="94" t="s">
+      <c r="C53" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="95"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="89"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="59"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -9548,13 +9566,13 @@
       <c r="U53" s="54"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="92"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="90"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="60"/>
       <c r="H54" s="58" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -9579,17 +9597,17 @@
       <c r="U54" s="55"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="91"/>
-      <c r="B55" s="93" t="s">
+      <c r="A55" s="61"/>
+      <c r="B55" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="94" t="s">
+      <c r="C55" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="95"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="89"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="59"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -9619,13 +9637,13 @@
       <c r="U55" s="54"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="92"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="90"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="60"/>
       <c r="H56" s="58" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -9652,17 +9670,17 @@
       <c r="U56" s="55"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="91"/>
-      <c r="B57" s="93" t="s">
+      <c r="A57" s="61"/>
+      <c r="B57" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="94" t="s">
+      <c r="C57" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="95"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="89"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="59"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -9691,13 +9709,13 @@
       <c r="U57" s="54"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="92"/>
-      <c r="B58" s="90"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="90"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="60"/>
       <c r="H58" s="58" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -9724,15 +9742,15 @@
       <c r="U58" s="56"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="122" t="s">
+      <c r="A59" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="123"/>
-      <c r="C59" s="123"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="126"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="84"/>
       <c r="H59" s="20" t="s">
         <v>21</v>
       </c>
@@ -9786,13 +9804,13 @@
       </c>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="119"/>
-      <c r="B60" s="120"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="121"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="127"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="85"/>
       <c r="H60" s="7" t="s">
         <v>23</v>
       </c>
@@ -9844,17 +9862,17 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="91">
+      <c r="A61" s="61">
         <v>1</v>
       </c>
-      <c r="B61" s="94" t="s">
+      <c r="B61" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="100"/>
-      <c r="D61" s="95"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="104"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="74"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -9874,13 +9892,13 @@
       <c r="U61" s="54"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="92"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="105"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="75"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -9900,17 +9918,17 @@
       <c r="U62" s="55"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="91"/>
-      <c r="B63" s="93" t="s">
+      <c r="A63" s="61"/>
+      <c r="B63" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="94" t="s">
+      <c r="C63" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="95"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="89"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="59"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -9943,13 +9961,13 @@
       <c r="U63" s="54"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="92"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="90"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="60"/>
       <c r="H64" s="58" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -9976,17 +9994,17 @@
       <c r="U64" s="55"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="91"/>
-      <c r="B65" s="93" t="s">
+      <c r="A65" s="61"/>
+      <c r="B65" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="94" t="s">
+      <c r="C65" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="95"/>
-      <c r="E65" s="98"/>
-      <c r="F65" s="98"/>
-      <c r="G65" s="89"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -10016,13 +10034,13 @@
       <c r="U65" s="54"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="92"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="90"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="60"/>
       <c r="H66" s="58" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -10047,17 +10065,17 @@
       <c r="U66" s="55"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="91"/>
-      <c r="B67" s="93" t="s">
+      <c r="A67" s="61"/>
+      <c r="B67" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="94" t="s">
+      <c r="C67" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="95"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="89"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="59"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -10087,13 +10105,13 @@
       <c r="U67" s="54"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="92"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="90"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="60"/>
       <c r="H68" s="58" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -10118,17 +10136,17 @@
       <c r="U68" s="55"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="91">
+      <c r="A69" s="61">
         <v>2</v>
       </c>
-      <c r="B69" s="94" t="s">
+      <c r="B69" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="100"/>
-      <c r="D69" s="95"/>
-      <c r="E69" s="102"/>
-      <c r="F69" s="102"/>
-      <c r="G69" s="104"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="74"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -10148,13 +10166,13 @@
       <c r="U69" s="54"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="92"/>
-      <c r="B70" s="96"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="103"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="105"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="75"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -10174,17 +10192,17 @@
       <c r="U70" s="55"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="91"/>
-      <c r="B71" s="93" t="s">
+      <c r="A71" s="61"/>
+      <c r="B71" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="94" t="s">
+      <c r="C71" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="95"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="98"/>
-      <c r="G71" s="89"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="59"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -10214,13 +10232,13 @@
       <c r="U71" s="54"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="92"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="90"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="60"/>
       <c r="H72" s="58" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -10245,17 +10263,17 @@
       <c r="U72" s="55"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="91"/>
-      <c r="B73" s="93" t="s">
+      <c r="A73" s="61"/>
+      <c r="B73" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="94" t="s">
+      <c r="C73" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="95"/>
-      <c r="E73" s="98"/>
-      <c r="F73" s="98"/>
-      <c r="G73" s="89"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="59"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -10285,13 +10303,13 @@
       <c r="U73" s="54"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="92"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="90"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="60"/>
       <c r="H74" s="58" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -10316,17 +10334,17 @@
       <c r="U74" s="55"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="91"/>
-      <c r="B75" s="93" t="s">
+      <c r="A75" s="61"/>
+      <c r="B75" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="94" t="s">
+      <c r="C75" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="95"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="98"/>
-      <c r="G75" s="89"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="59"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -10356,13 +10374,13 @@
       <c r="U75" s="54"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="92"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="90"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="60"/>
       <c r="H76" s="58" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -10387,15 +10405,15 @@
       <c r="U76" s="56"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="122" t="s">
+      <c r="A77" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="123"/>
-      <c r="C77" s="123"/>
-      <c r="D77" s="124"/>
-      <c r="E77" s="125"/>
-      <c r="F77" s="125"/>
-      <c r="G77" s="126"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="84"/>
       <c r="H77" s="20" t="s">
         <v>21</v>
       </c>
@@ -10449,13 +10467,13 @@
       </c>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="119"/>
-      <c r="B78" s="120"/>
-      <c r="C78" s="120"/>
-      <c r="D78" s="121"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="127"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="85"/>
       <c r="H78" s="7" t="s">
         <v>23</v>
       </c>
@@ -10507,17 +10525,17 @@
       </c>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="91">
+      <c r="A79" s="61">
         <v>1</v>
       </c>
-      <c r="B79" s="94" t="s">
+      <c r="B79" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="100"/>
-      <c r="D79" s="95"/>
-      <c r="E79" s="102"/>
-      <c r="F79" s="102"/>
-      <c r="G79" s="104"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="74"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -10537,13 +10555,13 @@
       <c r="U79" s="54"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="92"/>
-      <c r="B80" s="96"/>
-      <c r="C80" s="101"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="105"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="75"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -10563,17 +10581,17 @@
       <c r="U80" s="55"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="91"/>
-      <c r="B81" s="93" t="s">
+      <c r="A81" s="61"/>
+      <c r="B81" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="94" t="s">
+      <c r="C81" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D81" s="95"/>
-      <c r="E81" s="98"/>
-      <c r="F81" s="98"/>
-      <c r="G81" s="89"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="59"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -10606,13 +10624,13 @@
       <c r="U81" s="54"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="92"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="97"/>
-      <c r="E82" s="99"/>
-      <c r="F82" s="99"/>
-      <c r="G82" s="90"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="60"/>
       <c r="H82" s="58" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -10639,17 +10657,17 @@
       <c r="U82" s="55"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="91"/>
-      <c r="B83" s="93" t="s">
+      <c r="A83" s="61"/>
+      <c r="B83" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="94" t="s">
+      <c r="C83" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="95"/>
-      <c r="E83" s="98"/>
-      <c r="F83" s="98"/>
-      <c r="G83" s="89"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="59"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -10679,13 +10697,13 @@
       <c r="U83" s="54"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="92"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="99"/>
-      <c r="F84" s="99"/>
-      <c r="G84" s="90"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="60"/>
       <c r="H84" s="58" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -10712,15 +10730,15 @@
       <c r="U84" s="55"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="122" t="s">
+      <c r="A85" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="125"/>
-      <c r="F85" s="125"/>
-      <c r="G85" s="126"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="84"/>
       <c r="H85" s="20" t="s">
         <v>21</v>
       </c>
@@ -10771,13 +10789,13 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="119"/>
-      <c r="B86" s="120"/>
-      <c r="C86" s="120"/>
-      <c r="D86" s="121"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="127"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="85"/>
       <c r="H86" s="7" t="s">
         <v>23</v>
       </c>
@@ -10829,17 +10847,17 @@
       </c>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="91">
+      <c r="A87" s="61">
         <v>1</v>
       </c>
-      <c r="B87" s="94" t="s">
+      <c r="B87" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="100"/>
-      <c r="D87" s="95"/>
-      <c r="E87" s="102"/>
-      <c r="F87" s="102"/>
-      <c r="G87" s="104"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="74"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -10859,13 +10877,13 @@
       <c r="U87" s="54"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="92"/>
-      <c r="B88" s="96"/>
-      <c r="C88" s="101"/>
-      <c r="D88" s="97"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="103"/>
-      <c r="G88" s="105"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="75"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -10885,17 +10903,17 @@
       <c r="U88" s="55"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="91"/>
-      <c r="B89" s="93" t="s">
+      <c r="A89" s="61"/>
+      <c r="B89" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="94" t="s">
+      <c r="C89" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D89" s="95"/>
-      <c r="E89" s="98"/>
-      <c r="F89" s="98"/>
-      <c r="G89" s="89"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="59"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -10925,13 +10943,13 @@
       <c r="U89" s="54"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="92"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="97"/>
-      <c r="E90" s="99"/>
-      <c r="F90" s="99"/>
-      <c r="G90" s="90"/>
+      <c r="A90" s="62"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="60"/>
       <c r="H90" s="58" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -10956,17 +10974,17 @@
       <c r="U90" s="55"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="91"/>
-      <c r="B91" s="93" t="s">
+      <c r="A91" s="61"/>
+      <c r="B91" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="128" t="s">
+      <c r="C91" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="95"/>
-      <c r="E91" s="98"/>
-      <c r="F91" s="98"/>
-      <c r="G91" s="89"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="68"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="59"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -10996,13 +11014,13 @@
       <c r="U91" s="54"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="92"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="96"/>
-      <c r="D92" s="97"/>
-      <c r="E92" s="99"/>
-      <c r="F92" s="99"/>
-      <c r="G92" s="90"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="60"/>
       <c r="H92" s="58" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -11025,17 +11043,17 @@
       <c r="U92" s="55"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="91">
+      <c r="A93" s="61">
         <v>2</v>
       </c>
-      <c r="B93" s="94" t="s">
+      <c r="B93" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="100"/>
-      <c r="D93" s="95"/>
-      <c r="E93" s="102"/>
-      <c r="F93" s="102"/>
-      <c r="G93" s="104"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="74"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -11055,13 +11073,13 @@
       <c r="U93" s="54"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="92"/>
-      <c r="B94" s="96"/>
-      <c r="C94" s="101"/>
-      <c r="D94" s="97"/>
-      <c r="E94" s="103"/>
-      <c r="F94" s="103"/>
-      <c r="G94" s="105"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="75"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -11081,17 +11099,17 @@
       <c r="U94" s="55"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="91"/>
-      <c r="B95" s="93" t="s">
+      <c r="A95" s="61"/>
+      <c r="B95" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="94" t="s">
+      <c r="C95" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="95"/>
-      <c r="E95" s="98"/>
-      <c r="F95" s="98"/>
-      <c r="G95" s="89"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="59"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -11121,13 +11139,13 @@
       <c r="U95" s="54"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="92"/>
-      <c r="B96" s="90"/>
-      <c r="C96" s="96"/>
-      <c r="D96" s="97"/>
-      <c r="E96" s="99"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="90"/>
+      <c r="A96" s="62"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69"/>
+      <c r="G96" s="60"/>
       <c r="H96" s="58" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -11152,17 +11170,17 @@
       <c r="U96" s="55"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="91"/>
-      <c r="B97" s="93" t="s">
+      <c r="A97" s="61"/>
+      <c r="B97" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="94" t="s">
+      <c r="C97" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="95"/>
-      <c r="E97" s="98"/>
-      <c r="F97" s="98"/>
-      <c r="G97" s="89"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="68"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="59"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -11191,13 +11209,13 @@
       <c r="U97" s="54"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="92"/>
-      <c r="B98" s="90"/>
-      <c r="C98" s="96"/>
-      <c r="D98" s="97"/>
-      <c r="E98" s="99"/>
-      <c r="F98" s="99"/>
-      <c r="G98" s="90"/>
+      <c r="A98" s="62"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="60"/>
       <c r="H98" s="58" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -11222,15 +11240,15 @@
       <c r="U98" s="56"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="122" t="s">
+      <c r="A99" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B99" s="123"/>
-      <c r="C99" s="123"/>
-      <c r="D99" s="124"/>
-      <c r="E99" s="125"/>
-      <c r="F99" s="125"/>
-      <c r="G99" s="126"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="84"/>
       <c r="H99" s="20" t="s">
         <v>21</v>
       </c>
@@ -11281,13 +11299,13 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="119"/>
-      <c r="B100" s="120"/>
-      <c r="C100" s="120"/>
-      <c r="D100" s="121"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="127"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="85"/>
       <c r="H100" s="7" t="s">
         <v>23</v>
       </c>
@@ -11339,17 +11357,17 @@
       </c>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="91">
+      <c r="A101" s="61">
         <v>1</v>
       </c>
-      <c r="B101" s="94" t="s">
+      <c r="B101" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="100"/>
-      <c r="D101" s="95"/>
-      <c r="E101" s="102"/>
-      <c r="F101" s="102"/>
-      <c r="G101" s="104"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="74"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -11369,13 +11387,13 @@
       <c r="U101" s="54"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="92"/>
-      <c r="B102" s="96"/>
-      <c r="C102" s="101"/>
-      <c r="D102" s="97"/>
-      <c r="E102" s="103"/>
-      <c r="F102" s="103"/>
-      <c r="G102" s="105"/>
+      <c r="A102" s="62"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="75"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -11395,17 +11413,17 @@
       <c r="U102" s="55"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="91"/>
-      <c r="B103" s="93" t="s">
+      <c r="A103" s="61"/>
+      <c r="B103" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="94" t="s">
+      <c r="C103" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="95"/>
-      <c r="E103" s="98"/>
-      <c r="F103" s="98"/>
-      <c r="G103" s="89"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="68"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="59"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -11435,13 +11453,13 @@
       <c r="U103" s="54"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="92"/>
-      <c r="B104" s="90"/>
-      <c r="C104" s="96"/>
-      <c r="D104" s="97"/>
-      <c r="E104" s="99"/>
-      <c r="F104" s="99"/>
-      <c r="G104" s="90"/>
+      <c r="A104" s="62"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="60"/>
       <c r="H104" s="58" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -11466,17 +11484,17 @@
       <c r="U104" s="55"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="91"/>
-      <c r="B105" s="93" t="s">
+      <c r="A105" s="61"/>
+      <c r="B105" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="94" t="s">
+      <c r="C105" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D105" s="95"/>
-      <c r="E105" s="98"/>
-      <c r="F105" s="98"/>
-      <c r="G105" s="89"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="59"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -11506,13 +11524,13 @@
       <c r="U105" s="54"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="92"/>
-      <c r="B106" s="90"/>
-      <c r="C106" s="96"/>
-      <c r="D106" s="97"/>
-      <c r="E106" s="99"/>
-      <c r="F106" s="99"/>
-      <c r="G106" s="90"/>
+      <c r="A106" s="62"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="69"/>
+      <c r="G106" s="60"/>
       <c r="H106" s="58" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -11535,17 +11553,17 @@
       <c r="U106" s="55"/>
     </row>
     <row r="107" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="91">
+      <c r="A107" s="61">
         <v>2</v>
       </c>
-      <c r="B107" s="94" t="s">
+      <c r="B107" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="100"/>
-      <c r="D107" s="95"/>
-      <c r="E107" s="102"/>
-      <c r="F107" s="102"/>
-      <c r="G107" s="104"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="74"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -11565,13 +11583,13 @@
       <c r="U107" s="54"/>
     </row>
     <row r="108" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="92"/>
-      <c r="B108" s="96"/>
-      <c r="C108" s="101"/>
-      <c r="D108" s="97"/>
-      <c r="E108" s="103"/>
-      <c r="F108" s="103"/>
-      <c r="G108" s="105"/>
+      <c r="A108" s="62"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="75"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -11591,17 +11609,17 @@
       <c r="U108" s="55"/>
     </row>
     <row r="109" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="91"/>
-      <c r="B109" s="93" t="s">
+      <c r="A109" s="61"/>
+      <c r="B109" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="94" t="s">
+      <c r="C109" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D109" s="95"/>
-      <c r="E109" s="98"/>
-      <c r="F109" s="98"/>
-      <c r="G109" s="89"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="68"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="59"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -11631,13 +11649,13 @@
       <c r="U109" s="54"/>
     </row>
     <row r="110" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="92"/>
-      <c r="B110" s="90"/>
-      <c r="C110" s="96"/>
-      <c r="D110" s="97"/>
-      <c r="E110" s="99"/>
-      <c r="F110" s="99"/>
-      <c r="G110" s="90"/>
+      <c r="A110" s="62"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="69"/>
+      <c r="G110" s="60"/>
       <c r="H110" s="58" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -11660,17 +11678,17 @@
       <c r="U110" s="55"/>
     </row>
     <row r="111" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="91"/>
-      <c r="B111" s="93" t="s">
+      <c r="A111" s="61"/>
+      <c r="B111" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="94" t="s">
+      <c r="C111" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D111" s="95"/>
-      <c r="E111" s="98"/>
-      <c r="F111" s="98"/>
-      <c r="G111" s="89"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="59"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -11700,13 +11718,13 @@
       <c r="U111" s="54"/>
     </row>
     <row r="112" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="92"/>
-      <c r="B112" s="90"/>
-      <c r="C112" s="96"/>
-      <c r="D112" s="97"/>
-      <c r="E112" s="99"/>
-      <c r="F112" s="99"/>
-      <c r="G112" s="90"/>
+      <c r="A112" s="62"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="60"/>
       <c r="H112" s="58" t="str">
         <f>IF(E111="","","実績")</f>
         <v/>
@@ -11746,19 +11764,287 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="318">
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="B27:B28"/>
@@ -11783,287 +12069,19 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L87:S98 L101:S112 L25:S36">
@@ -12233,6 +12251,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -12416,22 +12449,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4873661D-A2E2-45ED-A7B1-A92DDC4DD32C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12447,21 +12482,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_management/WBSガントチャート.xlsx
+++ b/00_management/WBSガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8018C81-5DC6-4AA7-AA42-2D08FBB2C7B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37244FA-36E5-4547-9DE6-A8A6687610EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1618,6 +1618,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1669,66 +1759,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1759,74 +1789,44 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2889,10 +2889,10 @@
   <dimension ref="A1:X113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O67" sqref="O67"/>
+      <selection pane="bottomRight" activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2911,135 +2911,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="91" t="s">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="123" t="s">
+      <c r="K1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="117">
+      <c r="L1" s="75">
         <v>43990</v>
       </c>
-      <c r="M1" s="118"/>
-      <c r="N1" s="117">
+      <c r="M1" s="76"/>
+      <c r="N1" s="75">
         <v>43991</v>
       </c>
-      <c r="O1" s="118"/>
-      <c r="P1" s="117">
+      <c r="O1" s="76"/>
+      <c r="P1" s="75">
         <v>43992</v>
       </c>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="117">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="75">
         <v>43993</v>
       </c>
-      <c r="S1" s="118"/>
-      <c r="T1" s="117">
+      <c r="S1" s="76"/>
+      <c r="T1" s="75">
         <v>43994</v>
       </c>
-      <c r="U1" s="118"/>
+      <c r="U1" s="76"/>
     </row>
     <row r="2" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="119" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="120"/>
-      <c r="N2" s="121" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="120"/>
-      <c r="P2" s="122" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="119" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="120"/>
-      <c r="T2" s="119" t="s">
+      <c r="S2" s="78"/>
+      <c r="T2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="120"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="116"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="74"/>
       <c r="X2" s="39"/>
     </row>
     <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="126" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="127"/>
-      <c r="P3" s="128" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="90" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90" t="s">
+      <c r="S3" s="59"/>
+      <c r="T3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="90"/>
+      <c r="U3" s="59"/>
     </row>
     <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="125"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="83"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -3072,15 +3072,15 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="104"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="114"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -3131,13 +3131,13 @@
       </c>
     </row>
     <row r="6" spans="1:24" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="105"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -3145,7 +3145,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="47">
         <f>SUM(K8,K24,K44,K60,K78,K86)</f>
-        <v>51.25</v>
+        <v>71.25</v>
       </c>
       <c r="L6" s="47">
         <f>SUM(L8,L24,L44,L60,L78,L86)</f>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="P6" s="47">
         <f t="shared" ref="P6:Q6" si="1">SUM(Q8,Q24,Q44,Q60,Q78,Q86)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="47">
         <f t="shared" si="1"/>
@@ -3189,15 +3189,15 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -3251,13 +3251,13 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="108"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -3309,17 +3309,17 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="61">
+      <c r="A9" s="91">
         <v>1</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="74"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="104"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -3339,13 +3339,13 @@
       <c r="U9" s="54"/>
     </row>
     <row r="10" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="75"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -3365,17 +3365,17 @@
       <c r="U10" s="55"/>
     </row>
     <row r="11" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="91"/>
+      <c r="B11" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="59"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -3404,13 +3404,13 @@
       <c r="U11" s="54"/>
     </row>
     <row r="12" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="62"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="60"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="58" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
@@ -3438,17 +3438,17 @@
       <c r="U12" s="55"/>
     </row>
     <row r="13" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
-      <c r="B13" s="63" t="s">
+      <c r="A13" s="91"/>
+      <c r="B13" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="59"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -3477,13 +3477,13 @@
       <c r="U13" s="54"/>
     </row>
     <row r="14" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="60"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="58" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
@@ -3510,17 +3510,17 @@
       <c r="U14" s="55"/>
     </row>
     <row r="15" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="61">
+      <c r="A15" s="91">
         <v>2</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="74"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="104"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -3540,13 +3540,13 @@
       <c r="U15" s="54"/>
     </row>
     <row r="16" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="75"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="105"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3566,17 +3566,17 @@
       <c r="U16" s="55"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="63" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="59"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="89"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -3605,13 +3605,13 @@
       <c r="U17" s="54"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="60"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="58" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
@@ -3636,17 +3636,17 @@
       <c r="U18" s="55"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="59"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3675,13 +3675,13 @@
       <c r="U19" s="54"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="60"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="58" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
@@ -3706,17 +3706,17 @@
       <c r="U20" s="55"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="63" t="s">
+      <c r="A21" s="91"/>
+      <c r="B21" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="59"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3745,13 +3745,13 @@
       <c r="U21" s="54"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="60"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="58" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
@@ -3776,15 +3776,15 @@
       <c r="U22" s="55"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="84"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="126"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3836,13 +3836,13 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="85"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="127"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3894,17 +3894,17 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="61">
+      <c r="A25" s="91">
         <v>1</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="74"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="104"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3924,13 +3924,13 @@
       <c r="U25" s="54"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="75"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3950,17 +3950,17 @@
       <c r="U26" s="55"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63" t="s">
+      <c r="A27" s="91"/>
+      <c r="B27" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="59"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="89"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3989,13 +3989,13 @@
       <c r="U27" s="54"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="60"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="58" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
@@ -4020,17 +4020,17 @@
       <c r="U28" s="55"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61"/>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="91"/>
+      <c r="B29" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="59"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -4059,13 +4059,13 @@
       <c r="U29" s="54"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="62"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="60"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="58" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
@@ -4090,17 +4090,17 @@
       <c r="U30" s="55"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="61"/>
-      <c r="B31" s="63" t="s">
+      <c r="A31" s="91"/>
+      <c r="B31" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="59"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -4129,13 +4129,13 @@
       <c r="U31" s="54"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="62"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="60"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="58" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
@@ -4160,17 +4160,17 @@
       <c r="U32" s="55"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="61"/>
-      <c r="B33" s="63" t="s">
+      <c r="A33" s="91"/>
+      <c r="B33" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="59"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -4199,13 +4199,13 @@
       <c r="U33" s="54"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="62"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="60"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="58" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
@@ -4230,17 +4230,17 @@
       <c r="U34" s="55"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="61">
+      <c r="A35" s="91">
         <v>2</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="74"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="104"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -4260,13 +4260,13 @@
       <c r="U35" s="54"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="62"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="75"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="105"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -4286,17 +4286,17 @@
       <c r="U36" s="55"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="61"/>
-      <c r="B37" s="63" t="s">
+      <c r="A37" s="91"/>
+      <c r="B37" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="59"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="89"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -4325,13 +4325,13 @@
       <c r="U37" s="54"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="62"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="60"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="90"/>
       <c r="H38" s="58" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -4356,17 +4356,17 @@
       <c r="U38" s="55"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="61"/>
-      <c r="B39" s="63" t="s">
+      <c r="A39" s="91"/>
+      <c r="B39" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="59"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="89"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -4395,13 +4395,13 @@
       <c r="U39" s="54"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="62"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="60"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="58" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
@@ -4426,17 +4426,17 @@
       <c r="U40" s="55"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="61"/>
-      <c r="B41" s="63" t="s">
+      <c r="A41" s="91"/>
+      <c r="B41" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="59"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="89"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -4465,13 +4465,13 @@
       <c r="U41" s="54"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="62"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="60"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="58" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
@@ -4496,15 +4496,15 @@
       <c r="U42" s="55"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="84"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="126"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4558,13 +4558,13 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="79"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="85"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="127"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4616,17 +4616,17 @@
       </c>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="61">
+      <c r="A45" s="91">
         <v>1</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="74"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="104"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4646,13 +4646,13 @@
       <c r="U45" s="54"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="62"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="75"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="105"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4672,17 +4672,17 @@
       <c r="U46" s="55"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="61"/>
-      <c r="B47" s="63" t="s">
+      <c r="A47" s="91"/>
+      <c r="B47" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="59"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="89"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -4711,13 +4711,13 @@
       <c r="U47" s="54"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="62"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="60"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="90"/>
       <c r="H48" s="58" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -4744,17 +4744,17 @@
       <c r="U48" s="55"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="61"/>
-      <c r="B49" s="63" t="s">
+      <c r="A49" s="91"/>
+      <c r="B49" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="59"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="89"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4783,13 +4783,13 @@
       <c r="U49" s="54"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="62"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="60"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="90"/>
       <c r="H50" s="58" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -4814,17 +4814,17 @@
       <c r="U50" s="55"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="61">
+      <c r="A51" s="91">
         <v>2</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="74"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="104"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4844,13 +4844,13 @@
       <c r="U51" s="54"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="62"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="75"/>
+      <c r="A52" s="92"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="105"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4870,17 +4870,17 @@
       <c r="U52" s="55"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="61"/>
-      <c r="B53" s="63" t="s">
+      <c r="A53" s="91"/>
+      <c r="B53" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="59"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="89"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4908,13 +4908,13 @@
       <c r="U53" s="54"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="62"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="60"/>
+      <c r="A54" s="92"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="90"/>
       <c r="H54" s="58" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4939,17 +4939,17 @@
       <c r="U54" s="55"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="61"/>
-      <c r="B55" s="63" t="s">
+      <c r="A55" s="91"/>
+      <c r="B55" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="59"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="89"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4978,13 +4978,13 @@
       <c r="U55" s="54"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="62"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="60"/>
+      <c r="A56" s="92"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="90"/>
       <c r="H56" s="58" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -5009,17 +5009,17 @@
       <c r="U56" s="55"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="61"/>
-      <c r="B57" s="63" t="s">
+      <c r="A57" s="91"/>
+      <c r="B57" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="59"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="89"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -5048,13 +5048,13 @@
       <c r="U57" s="54"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="62"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="60"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="90"/>
       <c r="H58" s="58" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -5079,15 +5079,15 @@
       <c r="U58" s="56"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="76" t="s">
+      <c r="A59" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="84"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="126"/>
       <c r="H59" s="20" t="s">
         <v>21</v>
       </c>
@@ -5141,13 +5141,13 @@
       </c>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="79"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="85"/>
+      <c r="A60" s="119"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="127"/>
       <c r="H60" s="7" t="s">
         <v>23</v>
       </c>
@@ -5155,7 +5155,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>18.25</v>
+        <v>26.25</v>
       </c>
       <c r="L60" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="P60" s="36">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q60" s="36">
         <f t="shared" si="15"/>
@@ -5199,17 +5199,17 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="61">
+      <c r="A61" s="91">
         <v>1</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="74"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="104"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -5229,13 +5229,13 @@
       <c r="U61" s="54"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="62"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="75"/>
+      <c r="A62" s="92"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="105"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -5255,17 +5255,17 @@
       <c r="U62" s="55"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="61"/>
-      <c r="B63" s="63" t="s">
+      <c r="A63" s="91"/>
+      <c r="B63" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="65"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="59"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="89"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5294,13 +5294,13 @@
       <c r="U63" s="54"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="62"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="60"/>
+      <c r="A64" s="92"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="90"/>
       <c r="H64" s="58" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5327,17 +5327,17 @@
       <c r="U64" s="55"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="61"/>
-      <c r="B65" s="63" t="s">
+      <c r="A65" s="91"/>
+      <c r="B65" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="65"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="59"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="98"/>
+      <c r="G65" s="89"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -5367,13 +5367,13 @@
       <c r="U65" s="54"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="62"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="60"/>
+      <c r="A66" s="92"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="90"/>
       <c r="H66" s="58" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -5398,17 +5398,17 @@
       <c r="U66" s="55"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="61"/>
-      <c r="B67" s="63" t="s">
+      <c r="A67" s="91"/>
+      <c r="B67" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="65"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="59"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="89"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -5438,13 +5438,13 @@
       <c r="U67" s="54"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="62"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="60"/>
+      <c r="A68" s="92"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="90"/>
       <c r="H68" s="58" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -5469,17 +5469,17 @@
       <c r="U68" s="55"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="61">
+      <c r="A69" s="91">
         <v>2</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="74"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="104"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -5499,13 +5499,13 @@
       <c r="U69" s="54"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="62"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="75"/>
+      <c r="A70" s="92"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="105"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -5525,17 +5525,17 @@
       <c r="U70" s="55"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="61"/>
-      <c r="B71" s="63" t="s">
+      <c r="A71" s="91"/>
+      <c r="B71" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="65"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="59"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="89"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5565,13 +5565,13 @@
       <c r="U71" s="54"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="62"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="60"/>
+      <c r="A72" s="92"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="90"/>
       <c r="H72" s="58" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5580,13 +5580,15 @@
       <c r="J72" s="58"/>
       <c r="K72" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L72" s="41"/>
       <c r="M72" s="32"/>
       <c r="N72" s="32"/>
       <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
+      <c r="P72" s="32">
+        <v>2.5</v>
+      </c>
       <c r="Q72" s="32"/>
       <c r="R72" s="32"/>
       <c r="S72" s="32"/>
@@ -5594,17 +5596,17 @@
       <c r="U72" s="55"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="61"/>
-      <c r="B73" s="63" t="s">
+      <c r="A73" s="91"/>
+      <c r="B73" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="65"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="59"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="89"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -5634,13 +5636,13 @@
       <c r="U73" s="54"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="62"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="60"/>
+      <c r="A74" s="92"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="90"/>
       <c r="H74" s="58" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -5649,13 +5651,15 @@
       <c r="J74" s="58"/>
       <c r="K74" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L74" s="41"/>
       <c r="M74" s="32"/>
       <c r="N74" s="32"/>
       <c r="O74" s="32"/>
-      <c r="P74" s="32"/>
+      <c r="P74" s="32">
+        <v>5</v>
+      </c>
       <c r="Q74" s="32"/>
       <c r="R74" s="32"/>
       <c r="S74" s="32"/>
@@ -5663,17 +5667,17 @@
       <c r="U74" s="55"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="61"/>
-      <c r="B75" s="63" t="s">
+      <c r="A75" s="91"/>
+      <c r="B75" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="65"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="59"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="89"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -5703,13 +5707,13 @@
       <c r="U75" s="54"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="62"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="60"/>
+      <c r="A76" s="92"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="90"/>
       <c r="H76" s="58" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -5718,13 +5722,15 @@
       <c r="J76" s="58"/>
       <c r="K76" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L76" s="43"/>
       <c r="M76" s="44"/>
       <c r="N76" s="44"/>
       <c r="O76" s="44"/>
-      <c r="P76" s="44"/>
+      <c r="P76" s="44">
+        <v>0.5</v>
+      </c>
       <c r="Q76" s="44"/>
       <c r="R76" s="44"/>
       <c r="S76" s="44"/>
@@ -5732,15 +5738,15 @@
       <c r="U76" s="56"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="76" t="s">
+      <c r="A77" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="84"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="125"/>
+      <c r="G77" s="126"/>
       <c r="H77" s="20" t="s">
         <v>21</v>
       </c>
@@ -5794,13 +5800,13 @@
       </c>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="85"/>
+      <c r="A78" s="119"/>
+      <c r="B78" s="120"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="127"/>
       <c r="H78" s="7" t="s">
         <v>23</v>
       </c>
@@ -5808,7 +5814,7 @@
       <c r="J78" s="7"/>
       <c r="K78" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$79:K$84),2)=0)*K$79:K$84)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L78" s="36">
         <f t="shared" ref="L78:S78" si="20">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
@@ -5828,11 +5834,11 @@
       </c>
       <c r="P78" s="36">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q78" s="36">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R78" s="36">
         <f t="shared" si="20"/>
@@ -5852,17 +5858,17 @@
       </c>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="61">
+      <c r="A79" s="91">
         <v>1</v>
       </c>
-      <c r="B79" s="64" t="s">
+      <c r="B79" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="70"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="74"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="104"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5882,13 +5888,13 @@
       <c r="U79" s="54"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="62"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="75"/>
+      <c r="A80" s="92"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="105"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5908,17 +5914,17 @@
       <c r="U80" s="55"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="61"/>
-      <c r="B81" s="63" t="s">
+      <c r="A81" s="91"/>
+      <c r="B81" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="64" t="s">
+      <c r="C81" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D81" s="65"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="59"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="89"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5950,13 +5956,13 @@
       <c r="U81" s="54"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="62"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="60"/>
+      <c r="A82" s="92"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="99"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="90"/>
       <c r="H82" s="58" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -5965,31 +5971,35 @@
       <c r="J82" s="58"/>
       <c r="K82" s="10">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L82" s="41"/>
       <c r="M82" s="32"/>
       <c r="N82" s="32"/>
       <c r="O82" s="32"/>
-      <c r="P82" s="32"/>
-      <c r="Q82" s="32"/>
+      <c r="P82" s="32">
+        <v>5</v>
+      </c>
+      <c r="Q82" s="32">
+        <v>4</v>
+      </c>
       <c r="R82" s="32"/>
       <c r="S82" s="32"/>
       <c r="T82" s="55"/>
       <c r="U82" s="55"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="61"/>
-      <c r="B83" s="63" t="s">
+      <c r="A83" s="91"/>
+      <c r="B83" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="64" t="s">
+      <c r="C83" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="65"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="59"/>
+      <c r="D83" s="95"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="89"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -6018,13 +6028,13 @@
       <c r="U83" s="54"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="62"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="60"/>
+      <c r="A84" s="92"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="90"/>
       <c r="H84" s="58" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -6033,29 +6043,31 @@
       <c r="J84" s="58"/>
       <c r="K84" s="10">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L84" s="41"/>
       <c r="M84" s="32"/>
       <c r="N84" s="32"/>
       <c r="O84" s="32"/>
       <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
+      <c r="Q84" s="32">
+        <v>3</v>
+      </c>
       <c r="R84" s="32"/>
       <c r="S84" s="32"/>
       <c r="T84" s="55"/>
       <c r="U84" s="55"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="76" t="s">
+      <c r="A85" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="77"/>
-      <c r="C85" s="77"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="84"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="125"/>
+      <c r="F85" s="125"/>
+      <c r="G85" s="126"/>
       <c r="H85" s="20" t="s">
         <v>21</v>
       </c>
@@ -6106,13 +6118,13 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="79"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="85"/>
+      <c r="A86" s="119"/>
+      <c r="B86" s="120"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="127"/>
       <c r="H86" s="7" t="s">
         <v>23</v>
       </c>
@@ -6164,17 +6176,17 @@
       </c>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="61">
+      <c r="A87" s="91">
         <v>1</v>
       </c>
-      <c r="B87" s="64" t="s">
+      <c r="B87" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="70"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="74"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="104"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -6194,13 +6206,13 @@
       <c r="U87" s="54"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="62"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="75"/>
+      <c r="A88" s="92"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="103"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="105"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -6220,17 +6232,17 @@
       <c r="U88" s="55"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="61"/>
-      <c r="B89" s="63" t="s">
+      <c r="A89" s="91"/>
+      <c r="B89" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="64" t="s">
+      <c r="C89" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="D89" s="65"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="59"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="89"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6259,13 +6271,13 @@
       <c r="U89" s="54"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="62"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="60"/>
+      <c r="A90" s="92"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="97"/>
+      <c r="E90" s="99"/>
+      <c r="F90" s="99"/>
+      <c r="G90" s="90"/>
       <c r="H90" s="58" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6281,24 +6293,26 @@
       <c r="N90" s="32"/>
       <c r="O90" s="32"/>
       <c r="P90" s="32"/>
-      <c r="Q90" s="32"/>
+      <c r="Q90" s="32">
+        <v>0</v>
+      </c>
       <c r="R90" s="32"/>
       <c r="S90" s="32"/>
       <c r="T90" s="55"/>
       <c r="U90" s="55"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="61"/>
-      <c r="B91" s="63" t="s">
+      <c r="A91" s="91"/>
+      <c r="B91" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="86" t="s">
+      <c r="C91" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="65"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="59"/>
+      <c r="D91" s="95"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="89"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -6327,13 +6341,13 @@
       <c r="U91" s="54"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="62"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="60"/>
+      <c r="A92" s="92"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99"/>
+      <c r="G92" s="90"/>
       <c r="H92" s="58" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -6349,24 +6363,26 @@
       <c r="N92" s="32"/>
       <c r="O92" s="32"/>
       <c r="P92" s="32"/>
-      <c r="Q92" s="32"/>
+      <c r="Q92" s="32">
+        <v>0</v>
+      </c>
       <c r="R92" s="32"/>
       <c r="S92" s="32"/>
       <c r="T92" s="55"/>
       <c r="U92" s="55"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="61">
+      <c r="A93" s="91">
         <v>2</v>
       </c>
-      <c r="B93" s="64" t="s">
+      <c r="B93" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="70"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="74"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="95"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="104"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -6386,13 +6402,13 @@
       <c r="U93" s="54"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="62"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="75"/>
+      <c r="A94" s="92"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="103"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="105"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -6412,17 +6428,17 @@
       <c r="U94" s="55"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="61"/>
-      <c r="B95" s="63" t="s">
+      <c r="A95" s="91"/>
+      <c r="B95" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="65"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="59"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="98"/>
+      <c r="F95" s="98"/>
+      <c r="G95" s="89"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6451,13 +6467,13 @@
       <c r="U95" s="54"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="62"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="60"/>
+      <c r="A96" s="92"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="90"/>
       <c r="H96" s="58" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6480,17 +6496,17 @@
       <c r="U96" s="55"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="61"/>
-      <c r="B97" s="63" t="s">
+      <c r="A97" s="91"/>
+      <c r="B97" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="64" t="s">
+      <c r="C97" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="65"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="59"/>
+      <c r="D97" s="95"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="98"/>
+      <c r="G97" s="89"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -6519,13 +6535,13 @@
       <c r="U97" s="54"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="62"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="60"/>
+      <c r="A98" s="92"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="97"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="90"/>
       <c r="H98" s="58" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -6548,15 +6564,15 @@
       <c r="U98" s="56"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="76" t="s">
+      <c r="A99" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="B99" s="77"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="78"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="84"/>
+      <c r="B99" s="123"/>
+      <c r="C99" s="123"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="125"/>
+      <c r="F99" s="125"/>
+      <c r="G99" s="126"/>
       <c r="H99" s="20" t="s">
         <v>21</v>
       </c>
@@ -6607,13 +6623,13 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="79"/>
-      <c r="B100" s="80"/>
-      <c r="C100" s="80"/>
-      <c r="D100" s="81"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="85"/>
+      <c r="A100" s="119"/>
+      <c r="B100" s="120"/>
+      <c r="C100" s="120"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="127"/>
       <c r="H100" s="7" t="s">
         <v>23</v>
       </c>
@@ -6665,17 +6681,17 @@
       </c>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="61">
+      <c r="A101" s="91">
         <v>1</v>
       </c>
-      <c r="B101" s="64" t="s">
+      <c r="B101" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="70"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="74"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
+      <c r="G101" s="104"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -6695,13 +6711,13 @@
       <c r="U101" s="54"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="62"/>
-      <c r="B102" s="66"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="75"/>
+      <c r="A102" s="92"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="103"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="105"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -6721,17 +6737,17 @@
       <c r="U102" s="55"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="61"/>
-      <c r="B103" s="63" t="s">
+      <c r="A103" s="91"/>
+      <c r="B103" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="65"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="59"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="89"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6760,13 +6776,13 @@
       <c r="U103" s="54"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="62"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="60"/>
+      <c r="A104" s="92"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="97"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="90"/>
       <c r="H104" s="58" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6789,17 +6805,17 @@
       <c r="U104" s="55"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="61"/>
-      <c r="B105" s="63" t="s">
+      <c r="A105" s="91"/>
+      <c r="B105" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="64" t="s">
+      <c r="C105" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="D105" s="65"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="59"/>
+      <c r="D105" s="95"/>
+      <c r="E105" s="98"/>
+      <c r="F105" s="98"/>
+      <c r="G105" s="89"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -6828,13 +6844,13 @@
       <c r="U105" s="54"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="62"/>
-      <c r="B106" s="60"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="60"/>
+      <c r="A106" s="92"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="97"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="90"/>
       <c r="H106" s="58" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -6857,17 +6873,17 @@
       <c r="U106" s="55"/>
     </row>
     <row r="107" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="61">
+      <c r="A107" s="91">
         <v>2</v>
       </c>
-      <c r="B107" s="64" t="s">
+      <c r="B107" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="70"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="74"/>
+      <c r="C107" s="100"/>
+      <c r="D107" s="95"/>
+      <c r="E107" s="102"/>
+      <c r="F107" s="102"/>
+      <c r="G107" s="104"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -6887,13 +6903,13 @@
       <c r="U107" s="54"/>
     </row>
     <row r="108" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="62"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="71"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="75"/>
+      <c r="A108" s="92"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="101"/>
+      <c r="D108" s="97"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="105"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -6913,17 +6929,17 @@
       <c r="U108" s="55"/>
     </row>
     <row r="109" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="61"/>
-      <c r="B109" s="63" t="s">
+      <c r="A109" s="91"/>
+      <c r="B109" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="64" t="s">
+      <c r="C109" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D109" s="65"/>
-      <c r="E109" s="68"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="59"/>
+      <c r="D109" s="95"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="98"/>
+      <c r="G109" s="89"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6952,13 +6968,13 @@
       <c r="U109" s="54"/>
     </row>
     <row r="110" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="62"/>
-      <c r="B110" s="60"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="60"/>
+      <c r="A110" s="92"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="97"/>
+      <c r="E110" s="99"/>
+      <c r="F110" s="99"/>
+      <c r="G110" s="90"/>
       <c r="H110" s="58" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -6981,17 +6997,17 @@
       <c r="U110" s="55"/>
     </row>
     <row r="111" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="61"/>
-      <c r="B111" s="63" t="s">
+      <c r="A111" s="91"/>
+      <c r="B111" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="64" t="s">
+      <c r="C111" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D111" s="65"/>
-      <c r="E111" s="68"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="59"/>
+      <c r="D111" s="95"/>
+      <c r="E111" s="98"/>
+      <c r="F111" s="98"/>
+      <c r="G111" s="89"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -7020,13 +7036,13 @@
       <c r="U111" s="54"/>
     </row>
     <row r="112" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="62"/>
-      <c r="B112" s="60"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="60"/>
+      <c r="A112" s="92"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="97"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="90"/>
       <c r="H112" s="58" t="str">
         <f>IF(E111="","","実績")</f>
         <v/>
@@ -7066,6 +7082,301 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="319">
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
@@ -7090,301 +7401,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L87:S98 L101:S112 L25:S36 L45:S52 L53:M53 O53:S53 L54:S58">
@@ -7572,132 +7588,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="91" t="s">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="123" t="s">
+      <c r="K1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="117">
+      <c r="L1" s="75">
         <v>43984</v>
       </c>
-      <c r="M1" s="118"/>
-      <c r="N1" s="117">
+      <c r="M1" s="76"/>
+      <c r="N1" s="75">
         <v>43985</v>
       </c>
-      <c r="O1" s="118"/>
-      <c r="P1" s="117">
+      <c r="O1" s="76"/>
+      <c r="P1" s="75">
         <v>43986</v>
       </c>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="117">
+      <c r="Q1" s="76"/>
+      <c r="R1" s="75">
         <v>43987</v>
       </c>
-      <c r="S1" s="118"/>
-      <c r="T1" s="117">
+      <c r="S1" s="76"/>
+      <c r="T1" s="75">
         <v>43990</v>
       </c>
-      <c r="U1" s="118"/>
+      <c r="U1" s="76"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="121" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="120"/>
-      <c r="N2" s="119" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="122" t="s">
+      <c r="O2" s="77"/>
+      <c r="P2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="119" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="120"/>
-      <c r="T2" s="119" t="s">
+      <c r="S2" s="78"/>
+      <c r="T2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="120"/>
+      <c r="U2" s="78"/>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="126" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="127"/>
-      <c r="P3" s="128" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="90" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90" t="s">
+      <c r="S3" s="59"/>
+      <c r="T3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="90"/>
+      <c r="U3" s="59"/>
     </row>
     <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="125"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="83"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -7730,15 +7746,15 @@
       </c>
     </row>
     <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="104"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="114"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -7789,13 +7805,13 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="105"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -7847,15 +7863,15 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -7909,13 +7925,13 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="108"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -7967,17 +7983,17 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="61">
+      <c r="A9" s="91">
         <v>1</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="74"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="104"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v/>
@@ -7997,13 +8013,13 @@
       <c r="U9" s="54"/>
     </row>
     <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="62"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="75"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="105"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v/>
@@ -8023,17 +8039,17 @@
       <c r="U10" s="55"/>
     </row>
     <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="91"/>
+      <c r="B11" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="59"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -8062,13 +8078,13 @@
       <c r="U11" s="54"/>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="62"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="60"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="58" t="str">
         <f>IF(E11="","","実績")</f>
         <v/>
@@ -8096,17 +8112,17 @@
       <c r="U12" s="55"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
-      <c r="B13" s="63" t="s">
+      <c r="A13" s="91"/>
+      <c r="B13" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="59"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -8135,13 +8151,13 @@
       <c r="U13" s="54"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="62"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="60"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="58" t="str">
         <f>IF(E13="","","実績")</f>
         <v/>
@@ -8166,17 +8182,17 @@
       <c r="U14" s="55"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="61">
+      <c r="A15" s="91">
         <v>2</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="74"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="104"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -8196,13 +8212,13 @@
       <c r="U15" s="54"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="75"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="105"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -8222,17 +8238,17 @@
       <c r="U16" s="55"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="63" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="59"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="89"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -8262,13 +8278,13 @@
       <c r="U17" s="54"/>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="60"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="58" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
@@ -8291,17 +8307,17 @@
       <c r="U18" s="55"/>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
-      <c r="B19" s="63" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="59"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -8331,13 +8347,13 @@
       <c r="U19" s="54"/>
     </row>
     <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="60"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="58" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
@@ -8360,17 +8376,17 @@
       <c r="U20" s="55"/>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="63" t="s">
+      <c r="A21" s="91"/>
+      <c r="B21" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="59"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -8400,13 +8416,13 @@
       <c r="U21" s="54"/>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="60"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="58" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
@@ -8429,15 +8445,15 @@
       <c r="U22" s="55"/>
     </row>
     <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="84"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="126"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -8489,13 +8505,13 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="85"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="127"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -8547,17 +8563,17 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="61">
+      <c r="A25" s="91">
         <v>1</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="74"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="104"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -8577,13 +8593,13 @@
       <c r="U25" s="54"/>
     </row>
     <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="75"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -8603,17 +8619,17 @@
       <c r="U26" s="55"/>
     </row>
     <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63" t="s">
+      <c r="A27" s="91"/>
+      <c r="B27" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="59"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="89"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -8643,13 +8659,13 @@
       <c r="U27" s="54"/>
     </row>
     <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="60"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="58" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
@@ -8672,17 +8688,17 @@
       <c r="U28" s="55"/>
     </row>
     <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="61"/>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="91"/>
+      <c r="B29" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="59"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -8712,13 +8728,13 @@
       <c r="U29" s="54"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="62"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="60"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="58" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
@@ -8741,17 +8757,17 @@
       <c r="U30" s="55"/>
     </row>
     <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="61"/>
-      <c r="B31" s="63" t="s">
+      <c r="A31" s="91"/>
+      <c r="B31" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="59"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -8781,13 +8797,13 @@
       <c r="U31" s="54"/>
     </row>
     <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="62"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="60"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="58" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
@@ -8810,17 +8826,17 @@
       <c r="U32" s="55"/>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="61"/>
-      <c r="B33" s="63" t="s">
+      <c r="A33" s="91"/>
+      <c r="B33" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="59"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -8850,13 +8866,13 @@
       <c r="U33" s="54"/>
     </row>
     <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="62"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="60"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="58" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
@@ -8879,17 +8895,17 @@
       <c r="U34" s="55"/>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="61">
+      <c r="A35" s="91">
         <v>2</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="74"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="104"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -8909,13 +8925,13 @@
       <c r="U35" s="54"/>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="62"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="75"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="105"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -8935,17 +8951,17 @@
       <c r="U36" s="55"/>
     </row>
     <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="61"/>
-      <c r="B37" s="63" t="s">
+      <c r="A37" s="91"/>
+      <c r="B37" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="59"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="89"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -8975,13 +8991,13 @@
       <c r="U37" s="54"/>
     </row>
     <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="62"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="60"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="90"/>
       <c r="H38" s="58" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
@@ -9006,17 +9022,17 @@
       <c r="U38" s="55"/>
     </row>
     <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="61"/>
-      <c r="B39" s="63" t="s">
+      <c r="A39" s="91"/>
+      <c r="B39" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="59"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="89"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -9045,13 +9061,13 @@
       <c r="U39" s="54"/>
     </row>
     <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="62"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="60"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="58" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
@@ -9076,17 +9092,17 @@
       <c r="U40" s="55"/>
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="61"/>
-      <c r="B41" s="63" t="s">
+      <c r="A41" s="91"/>
+      <c r="B41" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="59"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="89"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -9115,13 +9131,13 @@
       <c r="U41" s="54"/>
     </row>
     <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="62"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="60"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="58" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
@@ -9146,15 +9162,15 @@
       <c r="U42" s="55"/>
     </row>
     <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="76" t="s">
+      <c r="A43" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="84"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="126"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -9208,13 +9224,13 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="79"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="85"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="127"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -9266,17 +9282,17 @@
       </c>
     </row>
     <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="61">
+      <c r="A45" s="91">
         <v>1</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="74"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="104"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -9296,13 +9312,13 @@
       <c r="U45" s="54"/>
     </row>
     <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="62"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="75"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="105"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -9322,17 +9338,17 @@
       <c r="U46" s="55"/>
     </row>
     <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="61"/>
-      <c r="B47" s="63" t="s">
+      <c r="A47" s="91"/>
+      <c r="B47" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="59"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="89"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -9362,13 +9378,13 @@
       <c r="U47" s="54"/>
     </row>
     <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="62"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="60"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="90"/>
       <c r="H48" s="58" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
@@ -9395,17 +9411,17 @@
       <c r="U48" s="55"/>
     </row>
     <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="61"/>
-      <c r="B49" s="63" t="s">
+      <c r="A49" s="91"/>
+      <c r="B49" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="59"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="89"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -9437,13 +9453,13 @@
       <c r="U49" s="54"/>
     </row>
     <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="62"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="60"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="90"/>
       <c r="H50" s="58" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
@@ -9470,17 +9486,17 @@
       <c r="U50" s="55"/>
     </row>
     <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="61">
+      <c r="A51" s="91">
         <v>2</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="74"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="104"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -9500,13 +9516,13 @@
       <c r="U51" s="54"/>
     </row>
     <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="62"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="75"/>
+      <c r="A52" s="92"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="105"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -9526,17 +9542,17 @@
       <c r="U52" s="55"/>
     </row>
     <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="61"/>
-      <c r="B53" s="63" t="s">
+      <c r="A53" s="91"/>
+      <c r="B53" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="59"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="89"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -9566,13 +9582,13 @@
       <c r="U53" s="54"/>
     </row>
     <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="62"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="60"/>
+      <c r="A54" s="92"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="90"/>
       <c r="H54" s="58" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -9597,17 +9613,17 @@
       <c r="U54" s="55"/>
     </row>
     <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="61"/>
-      <c r="B55" s="63" t="s">
+      <c r="A55" s="91"/>
+      <c r="B55" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="59"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="89"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -9637,13 +9653,13 @@
       <c r="U55" s="54"/>
     </row>
     <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="62"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="60"/>
+      <c r="A56" s="92"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="90"/>
       <c r="H56" s="58" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
@@ -9670,17 +9686,17 @@
       <c r="U56" s="55"/>
     </row>
     <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="61"/>
-      <c r="B57" s="63" t="s">
+      <c r="A57" s="91"/>
+      <c r="B57" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="59"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="89"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -9709,13 +9725,13 @@
       <c r="U57" s="54"/>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="62"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="60"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="90"/>
       <c r="H58" s="58" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
@@ -9742,15 +9758,15 @@
       <c r="U58" s="56"/>
     </row>
     <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="76" t="s">
+      <c r="A59" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="84"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="126"/>
       <c r="H59" s="20" t="s">
         <v>21</v>
       </c>
@@ -9804,13 +9820,13 @@
       </c>
     </row>
     <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="79"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="85"/>
+      <c r="A60" s="119"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="127"/>
       <c r="H60" s="7" t="s">
         <v>23</v>
       </c>
@@ -9862,17 +9878,17 @@
       </c>
     </row>
     <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="61">
+      <c r="A61" s="91">
         <v>1</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="74"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="104"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -9892,13 +9908,13 @@
       <c r="U61" s="54"/>
     </row>
     <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="62"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="75"/>
+      <c r="A62" s="92"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="105"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -9918,17 +9934,17 @@
       <c r="U62" s="55"/>
     </row>
     <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="61"/>
-      <c r="B63" s="63" t="s">
+      <c r="A63" s="91"/>
+      <c r="B63" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="65"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="59"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="89"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -9961,13 +9977,13 @@
       <c r="U63" s="54"/>
     </row>
     <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="62"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="60"/>
+      <c r="A64" s="92"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="90"/>
       <c r="H64" s="58" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -9994,17 +10010,17 @@
       <c r="U64" s="55"/>
     </row>
     <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="61"/>
-      <c r="B65" s="63" t="s">
+      <c r="A65" s="91"/>
+      <c r="B65" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="65"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="59"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="98"/>
+      <c r="G65" s="89"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -10034,13 +10050,13 @@
       <c r="U65" s="54"/>
     </row>
     <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="62"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="60"/>
+      <c r="A66" s="92"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="90"/>
       <c r="H66" s="58" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
@@ -10065,17 +10081,17 @@
       <c r="U66" s="55"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="61"/>
-      <c r="B67" s="63" t="s">
+      <c r="A67" s="91"/>
+      <c r="B67" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="65"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="59"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="89"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -10105,13 +10121,13 @@
       <c r="U67" s="54"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="62"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="60"/>
+      <c r="A68" s="92"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="90"/>
       <c r="H68" s="58" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
@@ -10136,17 +10152,17 @@
       <c r="U68" s="55"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="61">
+      <c r="A69" s="91">
         <v>2</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="74"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="104"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -10166,13 +10182,13 @@
       <c r="U69" s="54"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="62"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="75"/>
+      <c r="A70" s="92"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="105"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -10192,17 +10208,17 @@
       <c r="U70" s="55"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="61"/>
-      <c r="B71" s="63" t="s">
+      <c r="A71" s="91"/>
+      <c r="B71" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="65"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="59"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="89"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -10232,13 +10248,13 @@
       <c r="U71" s="54"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="62"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="60"/>
+      <c r="A72" s="92"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="90"/>
       <c r="H72" s="58" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -10263,17 +10279,17 @@
       <c r="U72" s="55"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="61"/>
-      <c r="B73" s="63" t="s">
+      <c r="A73" s="91"/>
+      <c r="B73" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="65"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="59"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="98"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="89"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -10303,13 +10319,13 @@
       <c r="U73" s="54"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="62"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="60"/>
+      <c r="A74" s="92"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="90"/>
       <c r="H74" s="58" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
@@ -10334,17 +10350,17 @@
       <c r="U74" s="55"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="61"/>
-      <c r="B75" s="63" t="s">
+      <c r="A75" s="91"/>
+      <c r="B75" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="65"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="59"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="89"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -10374,13 +10390,13 @@
       <c r="U75" s="54"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="62"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="60"/>
+      <c r="A76" s="92"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="90"/>
       <c r="H76" s="58" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
@@ -10405,15 +10421,15 @@
       <c r="U76" s="56"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="76" t="s">
+      <c r="A77" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="84"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="125"/>
+      <c r="G77" s="126"/>
       <c r="H77" s="20" t="s">
         <v>21</v>
       </c>
@@ -10467,13 +10483,13 @@
       </c>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="85"/>
+      <c r="A78" s="119"/>
+      <c r="B78" s="120"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="127"/>
       <c r="H78" s="7" t="s">
         <v>23</v>
       </c>
@@ -10525,17 +10541,17 @@
       </c>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="61">
+      <c r="A79" s="91">
         <v>1</v>
       </c>
-      <c r="B79" s="64" t="s">
+      <c r="B79" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="70"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="74"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="104"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -10555,13 +10571,13 @@
       <c r="U79" s="54"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="62"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="75"/>
+      <c r="A80" s="92"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="105"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -10581,17 +10597,17 @@
       <c r="U80" s="55"/>
     </row>
     <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="61"/>
-      <c r="B81" s="63" t="s">
+      <c r="A81" s="91"/>
+      <c r="B81" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="64" t="s">
+      <c r="C81" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D81" s="65"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="59"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="89"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -10624,13 +10640,13 @@
       <c r="U81" s="54"/>
     </row>
     <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="62"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="60"/>
+      <c r="A82" s="92"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="99"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="90"/>
       <c r="H82" s="58" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
@@ -10657,17 +10673,17 @@
       <c r="U82" s="55"/>
     </row>
     <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="61"/>
-      <c r="B83" s="63" t="s">
+      <c r="A83" s="91"/>
+      <c r="B83" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="64" t="s">
+      <c r="C83" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="65"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="59"/>
+      <c r="D83" s="95"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="89"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -10697,13 +10713,13 @@
       <c r="U83" s="54"/>
     </row>
     <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="62"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="60"/>
+      <c r="A84" s="92"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="90"/>
       <c r="H84" s="58" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
@@ -10730,15 +10746,15 @@
       <c r="U84" s="55"/>
     </row>
     <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="76" t="s">
+      <c r="A85" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="77"/>
-      <c r="C85" s="77"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="84"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="125"/>
+      <c r="F85" s="125"/>
+      <c r="G85" s="126"/>
       <c r="H85" s="20" t="s">
         <v>21</v>
       </c>
@@ -10789,13 +10805,13 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="79"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="85"/>
+      <c r="A86" s="119"/>
+      <c r="B86" s="120"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="127"/>
       <c r="H86" s="7" t="s">
         <v>23</v>
       </c>
@@ -10847,17 +10863,17 @@
       </c>
     </row>
     <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="61">
+      <c r="A87" s="91">
         <v>1</v>
       </c>
-      <c r="B87" s="64" t="s">
+      <c r="B87" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="70"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="74"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="104"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -10877,13 +10893,13 @@
       <c r="U87" s="54"/>
     </row>
     <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="62"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="75"/>
+      <c r="A88" s="92"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="103"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="105"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -10903,17 +10919,17 @@
       <c r="U88" s="55"/>
     </row>
     <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="61"/>
-      <c r="B89" s="63" t="s">
+      <c r="A89" s="91"/>
+      <c r="B89" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="64" t="s">
+      <c r="C89" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="D89" s="65"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="59"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="89"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -10943,13 +10959,13 @@
       <c r="U89" s="54"/>
     </row>
     <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="62"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="60"/>
+      <c r="A90" s="92"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="97"/>
+      <c r="E90" s="99"/>
+      <c r="F90" s="99"/>
+      <c r="G90" s="90"/>
       <c r="H90" s="58" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -10974,17 +10990,17 @@
       <c r="U90" s="55"/>
     </row>
     <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="61"/>
-      <c r="B91" s="63" t="s">
+      <c r="A91" s="91"/>
+      <c r="B91" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C91" s="86" t="s">
+      <c r="C91" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="65"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="59"/>
+      <c r="D91" s="95"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="89"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -11014,13 +11030,13 @@
       <c r="U91" s="54"/>
     </row>
     <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="62"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="60"/>
+      <c r="A92" s="92"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99"/>
+      <c r="G92" s="90"/>
       <c r="H92" s="58" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -11043,17 +11059,17 @@
       <c r="U92" s="55"/>
     </row>
     <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="61">
+      <c r="A93" s="91">
         <v>2</v>
       </c>
-      <c r="B93" s="64" t="s">
+      <c r="B93" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="70"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="74"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="95"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="104"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -11073,13 +11089,13 @@
       <c r="U93" s="54"/>
     </row>
     <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="62"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="75"/>
+      <c r="A94" s="92"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="103"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="105"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -11099,17 +11115,17 @@
       <c r="U94" s="55"/>
     </row>
     <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="61"/>
-      <c r="B95" s="63" t="s">
+      <c r="A95" s="91"/>
+      <c r="B95" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="65"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="59"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="98"/>
+      <c r="F95" s="98"/>
+      <c r="G95" s="89"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -11139,13 +11155,13 @@
       <c r="U95" s="54"/>
     </row>
     <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="62"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="60"/>
+      <c r="A96" s="92"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="90"/>
       <c r="H96" s="58" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -11170,17 +11186,17 @@
       <c r="U96" s="55"/>
     </row>
     <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="61"/>
-      <c r="B97" s="63" t="s">
+      <c r="A97" s="91"/>
+      <c r="B97" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="64" t="s">
+      <c r="C97" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="65"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="59"/>
+      <c r="D97" s="95"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="98"/>
+      <c r="G97" s="89"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -11209,13 +11225,13 @@
       <c r="U97" s="54"/>
     </row>
     <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="62"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="60"/>
+      <c r="A98" s="92"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="97"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="90"/>
       <c r="H98" s="58" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
@@ -11240,15 +11256,15 @@
       <c r="U98" s="56"/>
     </row>
     <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="76" t="s">
+      <c r="A99" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="B99" s="77"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="78"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="84"/>
+      <c r="B99" s="123"/>
+      <c r="C99" s="123"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="125"/>
+      <c r="F99" s="125"/>
+      <c r="G99" s="126"/>
       <c r="H99" s="20" t="s">
         <v>21</v>
       </c>
@@ -11299,13 +11315,13 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="79"/>
-      <c r="B100" s="80"/>
-      <c r="C100" s="80"/>
-      <c r="D100" s="81"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="85"/>
+      <c r="A100" s="119"/>
+      <c r="B100" s="120"/>
+      <c r="C100" s="120"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="127"/>
       <c r="H100" s="7" t="s">
         <v>23</v>
       </c>
@@ -11357,17 +11373,17 @@
       </c>
     </row>
     <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="61">
+      <c r="A101" s="91">
         <v>1</v>
       </c>
-      <c r="B101" s="64" t="s">
+      <c r="B101" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="70"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="74"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102"/>
+      <c r="G101" s="104"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -11387,13 +11403,13 @@
       <c r="U101" s="54"/>
     </row>
     <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="62"/>
-      <c r="B102" s="66"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="75"/>
+      <c r="A102" s="92"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="103"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="105"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -11413,17 +11429,17 @@
       <c r="U102" s="55"/>
     </row>
     <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="61"/>
-      <c r="B103" s="63" t="s">
+      <c r="A103" s="91"/>
+      <c r="B103" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="65"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="59"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="89"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -11453,13 +11469,13 @@
       <c r="U103" s="54"/>
     </row>
     <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="62"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="60"/>
+      <c r="A104" s="92"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="97"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="90"/>
       <c r="H104" s="58" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -11484,17 +11500,17 @@
       <c r="U104" s="55"/>
     </row>
     <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="61"/>
-      <c r="B105" s="63" t="s">
+      <c r="A105" s="91"/>
+      <c r="B105" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C105" s="64" t="s">
+      <c r="C105" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="D105" s="65"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="68"/>
-      <c r="G105" s="59"/>
+      <c r="D105" s="95"/>
+      <c r="E105" s="98"/>
+      <c r="F105" s="98"/>
+      <c r="G105" s="89"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -11524,13 +11540,13 @@
       <c r="U105" s="54"/>
     </row>
     <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="62"/>
-      <c r="B106" s="60"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="60"/>
+      <c r="A106" s="92"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="97"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="90"/>
       <c r="H106" s="58" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
@@ -11553,17 +11569,17 @@
       <c r="U106" s="55"/>
     </row>
     <row r="107" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="61">
+      <c r="A107" s="91">
         <v>2</v>
       </c>
-      <c r="B107" s="64" t="s">
+      <c r="B107" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="70"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="74"/>
+      <c r="C107" s="100"/>
+      <c r="D107" s="95"/>
+      <c r="E107" s="102"/>
+      <c r="F107" s="102"/>
+      <c r="G107" s="104"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -11583,13 +11599,13 @@
       <c r="U107" s="54"/>
     </row>
     <row r="108" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="62"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="71"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="75"/>
+      <c r="A108" s="92"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="101"/>
+      <c r="D108" s="97"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="105"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -11609,17 +11625,17 @@
       <c r="U108" s="55"/>
     </row>
     <row r="109" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="61"/>
-      <c r="B109" s="63" t="s">
+      <c r="A109" s="91"/>
+      <c r="B109" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="64" t="s">
+      <c r="C109" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D109" s="65"/>
-      <c r="E109" s="68"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="59"/>
+      <c r="D109" s="95"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="98"/>
+      <c r="G109" s="89"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -11649,13 +11665,13 @@
       <c r="U109" s="54"/>
     </row>
     <row r="110" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="62"/>
-      <c r="B110" s="60"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="60"/>
+      <c r="A110" s="92"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="97"/>
+      <c r="E110" s="99"/>
+      <c r="F110" s="99"/>
+      <c r="G110" s="90"/>
       <c r="H110" s="58" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -11678,17 +11694,17 @@
       <c r="U110" s="55"/>
     </row>
     <row r="111" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="61"/>
-      <c r="B111" s="63" t="s">
+      <c r="A111" s="91"/>
+      <c r="B111" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="64" t="s">
+      <c r="C111" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D111" s="65"/>
-      <c r="E111" s="68"/>
-      <c r="F111" s="68"/>
-      <c r="G111" s="59"/>
+      <c r="D111" s="95"/>
+      <c r="E111" s="98"/>
+      <c r="F111" s="98"/>
+      <c r="G111" s="89"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -11718,13 +11734,13 @@
       <c r="U111" s="54"/>
     </row>
     <row r="112" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="62"/>
-      <c r="B112" s="60"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="60"/>
+      <c r="A112" s="92"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="97"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="90"/>
       <c r="H112" s="58" t="str">
         <f>IF(E111="","","実績")</f>
         <v/>
@@ -11764,6 +11780,300 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="318">
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="T3:U3"/>
@@ -11788,300 +12098,6 @@
     <mergeCell ref="F89:F90"/>
     <mergeCell ref="G89:G90"/>
     <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L9:S18 L87:S98 L101:S112 L25:S36">
@@ -12251,21 +12267,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -12449,24 +12450,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4873661D-A2E2-45ED-A7B1-A92DDC4DD32C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12482,4 +12481,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>